--- a/download/my_test_case_manager.xlsx
+++ b/download/my_test_case_manager.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A98BA8-72E3-49A1-9BCF-E2F34D18BE8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BF958-7F39-4309-A959-4DEBD817BFFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,7 +291,7 @@
     <t>▪</t>
   </si>
   <si>
-    <t xml:space="preserve"> V5 Bld 2021.03.31</t>
+    <t xml:space="preserve"> V5 Bld 2021.04.01</t>
   </si>
 </sst>
 </file>
@@ -1244,9 +1244,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,6 +1312,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1336,14 +1339,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1360,14 +1363,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1380,6 +1383,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8965,10 +8971,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
+      <c r="C2" s="120"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8982,7 +8988,7 @@
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8996,7 +9002,7 @@
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="93"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9010,7 +9016,7 @@
       <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9043,7 +9049,7 @@
     <col min="3" max="3" width="6.5546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="93.33203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="113" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" style="110" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="2.88671875" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="20" bestFit="1" customWidth="1"/>
@@ -9058,7 +9064,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="111"/>
+      <c r="F1" s="108"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -9071,14 +9077,14 @@
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="122" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="124"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9086,7 +9092,7 @@
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
-      <c r="F3" s="111"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -9099,7 +9105,7 @@
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
-      <c r="F4" s="111"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="45" t="s">
         <v>17</v>
       </c>
@@ -9118,7 +9124,7 @@
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="111"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="44" t="s">
         <v>10</v>
       </c>
@@ -9141,7 +9147,7 @@
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="111"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="44" t="s">
         <v>6</v>
       </c>
@@ -9164,7 +9170,7 @@
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
-      <c r="F7" s="111"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="44" t="s">
         <v>5</v>
       </c>
@@ -9187,7 +9193,7 @@
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="111"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="68" t="s">
         <v>59</v>
       </c>
@@ -9207,7 +9213,7 @@
     </row>
     <row r="9" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="F9" s="111"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="68" t="s">
         <v>4</v>
       </c>
@@ -9230,7 +9236,7 @@
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="111"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="43" t="s">
         <v>35</v>
       </c>
@@ -9250,7 +9256,7 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="111"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="4"/>
       <c r="H11" s="19"/>
       <c r="I11" s="28">
@@ -9269,7 +9275,7 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="111"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -9282,7 +9288,7 @@
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="111"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="53" t="str">
         <f>IF(COUNTIF(G14:G16, "") &lt;&gt; 3, "VALIDATION ERROR!", "")</f>
         <v/>
@@ -9298,7 +9304,7 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="52" t="str">
         <f>IF($C$319&lt;&gt;$E$319,"REJ-01: " &amp; $C$319&amp;" [Exec Tm] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9314,7 +9320,7 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
-      <c r="F15" s="111"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="52" t="str">
         <f>IF($D$319&lt;&gt;$E$319,"REJ-02: " &amp; $D$319&amp;" [Status] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9330,7 +9336,7 @@
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
-      <c r="F16" s="111"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="52"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
@@ -9339,16 +9345,16 @@
       <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="116" t="s">
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="113" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="64"/>
@@ -9366,7 +9372,7 @@
       <c r="E18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="108"/>
       <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9377,7 +9383,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="51"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="112"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -9388,7 +9394,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="51"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="112"/>
+      <c r="F20" s="109"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="str" cm="1">
@@ -9398,7 +9404,7 @@
       <c r="C21" s="32"/>
       <c r="D21" s="51"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="112"/>
+      <c r="F21" s="109"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="str" cm="1">
@@ -9408,7 +9414,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="51"/>
       <c r="E22" s="42"/>
-      <c r="F22" s="112"/>
+      <c r="F22" s="109"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="str" cm="1">
@@ -9418,7 +9424,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="51"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="112"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="str" cm="1">
@@ -9428,7 +9434,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="51"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="111"/>
+      <c r="F24" s="108"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="str" cm="1">
@@ -9438,7 +9444,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="51"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="111"/>
+      <c r="F25" s="108"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="str" cm="1">
@@ -9448,7 +9454,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="51"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="111"/>
+      <c r="F26" s="108"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="str" cm="1">
@@ -9458,7 +9464,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="51"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="111"/>
+      <c r="F27" s="108"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="str" cm="1">
@@ -9468,7 +9474,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="51"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="111"/>
+      <c r="F28" s="108"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="str" cm="1">
@@ -9478,7 +9484,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="51"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="111"/>
+      <c r="F29" s="108"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="str" cm="1">
@@ -9488,7 +9494,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="51"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="111"/>
+      <c r="F30" s="108"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="str" cm="1">
@@ -9498,7 +9504,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="51"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="111"/>
+      <c r="F31" s="108"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="str" cm="1">
@@ -9508,7 +9514,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="51"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="111"/>
+      <c r="F32" s="108"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="str" cm="1">
@@ -9518,7 +9524,7 @@
       <c r="C33" s="32"/>
       <c r="D33" s="51"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="111"/>
+      <c r="F33" s="108"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="str" cm="1">
@@ -9528,7 +9534,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="51"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="111"/>
+      <c r="F34" s="108"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="str" cm="1">
@@ -9538,7 +9544,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="51"/>
       <c r="E35" s="42"/>
-      <c r="F35" s="111"/>
+      <c r="F35" s="108"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="str" cm="1">
@@ -9548,7 +9554,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="51"/>
       <c r="E36" s="42"/>
-      <c r="F36" s="112"/>
+      <c r="F36" s="109"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="str" cm="1">
@@ -9558,7 +9564,7 @@
       <c r="C37" s="32"/>
       <c r="D37" s="51"/>
       <c r="E37" s="42"/>
-      <c r="F37" s="111"/>
+      <c r="F37" s="108"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="31" t="str" cm="1">
@@ -9568,7 +9574,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="51"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="111"/>
+      <c r="F38" s="108"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="str" cm="1">
@@ -9578,7 +9584,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="51"/>
       <c r="E39" s="42"/>
-      <c r="F39" s="111"/>
+      <c r="F39" s="108"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="str" cm="1">
@@ -9588,7 +9594,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="51"/>
       <c r="E40" s="42"/>
-      <c r="F40" s="111"/>
+      <c r="F40" s="108"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="str" cm="1">
@@ -9598,7 +9604,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="51"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="111"/>
+      <c r="F41" s="108"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="str" cm="1">
@@ -9608,7 +9614,7 @@
       <c r="C42" s="32"/>
       <c r="D42" s="51"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="111"/>
+      <c r="F42" s="108"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="str" cm="1">
@@ -9618,7 +9624,7 @@
       <c r="C43" s="32"/>
       <c r="D43" s="51"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="111"/>
+      <c r="F43" s="108"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="str" cm="1">
@@ -9628,7 +9634,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="51"/>
       <c r="E44" s="42"/>
-      <c r="F44" s="111"/>
+      <c r="F44" s="108"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="str" cm="1">
@@ -9638,7 +9644,7 @@
       <c r="C45" s="32"/>
       <c r="D45" s="51"/>
       <c r="E45" s="42"/>
-      <c r="F45" s="111"/>
+      <c r="F45" s="108"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="31" t="str" cm="1">
@@ -9648,7 +9654,7 @@
       <c r="C46" s="32"/>
       <c r="D46" s="51"/>
       <c r="E46" s="42"/>
-      <c r="F46" s="111"/>
+      <c r="F46" s="108"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="str" cm="1">
@@ -9658,7 +9664,7 @@
       <c r="C47" s="32"/>
       <c r="D47" s="51"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="111"/>
+      <c r="F47" s="108"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="str" cm="1">
@@ -9668,7 +9674,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="51"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="111"/>
+      <c r="F48" s="108"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="str" cm="1">
@@ -9678,7 +9684,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="51"/>
       <c r="E49" s="42"/>
-      <c r="F49" s="111"/>
+      <c r="F49" s="108"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="str" cm="1">
@@ -9688,7 +9694,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="51"/>
       <c r="E50" s="42"/>
-      <c r="F50" s="111"/>
+      <c r="F50" s="108"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="str" cm="1">
@@ -9698,7 +9704,7 @@
       <c r="C51" s="32"/>
       <c r="D51" s="51"/>
       <c r="E51" s="42"/>
-      <c r="F51" s="111"/>
+      <c r="F51" s="108"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="str" cm="1">
@@ -9708,7 +9714,7 @@
       <c r="C52" s="32"/>
       <c r="D52" s="51"/>
       <c r="E52" s="42"/>
-      <c r="F52" s="111"/>
+      <c r="F52" s="108"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="str" cm="1">
@@ -9718,7 +9724,7 @@
       <c r="C53" s="32"/>
       <c r="D53" s="51"/>
       <c r="E53" s="42"/>
-      <c r="F53" s="111"/>
+      <c r="F53" s="108"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="31" t="str" cm="1">
@@ -9728,7 +9734,7 @@
       <c r="C54" s="32"/>
       <c r="D54" s="51"/>
       <c r="E54" s="42"/>
-      <c r="F54" s="111"/>
+      <c r="F54" s="108"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="str" cm="1">
@@ -9738,7 +9744,7 @@
       <c r="C55" s="32"/>
       <c r="D55" s="51"/>
       <c r="E55" s="42"/>
-      <c r="F55" s="111"/>
+      <c r="F55" s="108"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="str" cm="1">
@@ -9748,7 +9754,7 @@
       <c r="C56" s="32"/>
       <c r="D56" s="51"/>
       <c r="E56" s="42"/>
-      <c r="F56" s="111"/>
+      <c r="F56" s="108"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="str" cm="1">
@@ -9758,7 +9764,7 @@
       <c r="C57" s="32"/>
       <c r="D57" s="51"/>
       <c r="E57" s="42"/>
-      <c r="F57" s="111"/>
+      <c r="F57" s="108"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="str" cm="1">
@@ -9768,7 +9774,7 @@
       <c r="C58" s="32"/>
       <c r="D58" s="51"/>
       <c r="E58" s="42"/>
-      <c r="F58" s="111"/>
+      <c r="F58" s="108"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="31" t="str" cm="1">
@@ -9778,7 +9784,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="51"/>
       <c r="E59" s="42"/>
-      <c r="F59" s="111"/>
+      <c r="F59" s="108"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="31" t="str" cm="1">
@@ -9788,7 +9794,7 @@
       <c r="C60" s="32"/>
       <c r="D60" s="51"/>
       <c r="E60" s="42"/>
-      <c r="F60" s="111"/>
+      <c r="F60" s="108"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="31" t="str" cm="1">
@@ -9798,7 +9804,7 @@
       <c r="C61" s="32"/>
       <c r="D61" s="51"/>
       <c r="E61" s="42"/>
-      <c r="F61" s="111"/>
+      <c r="F61" s="108"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="31" t="str" cm="1">
@@ -9808,7 +9814,7 @@
       <c r="C62" s="32"/>
       <c r="D62" s="51"/>
       <c r="E62" s="42"/>
-      <c r="F62" s="111"/>
+      <c r="F62" s="108"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="31" t="str" cm="1">
@@ -9818,7 +9824,7 @@
       <c r="C63" s="32"/>
       <c r="D63" s="51"/>
       <c r="E63" s="42"/>
-      <c r="F63" s="111"/>
+      <c r="F63" s="108"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="31" t="str" cm="1">
@@ -9828,7 +9834,7 @@
       <c r="C64" s="32"/>
       <c r="D64" s="51"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="111"/>
+      <c r="F64" s="108"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="str" cm="1">
@@ -9838,7 +9844,7 @@
       <c r="C65" s="32"/>
       <c r="D65" s="51"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="111"/>
+      <c r="F65" s="108"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="31" t="str" cm="1">
@@ -9848,7 +9854,7 @@
       <c r="C66" s="32"/>
       <c r="D66" s="51"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="111"/>
+      <c r="F66" s="108"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="31" t="str" cm="1">
@@ -9858,7 +9864,7 @@
       <c r="C67" s="32"/>
       <c r="D67" s="51"/>
       <c r="E67" s="42"/>
-      <c r="F67" s="111"/>
+      <c r="F67" s="108"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="31" t="str" cm="1">
@@ -9868,7 +9874,7 @@
       <c r="C68" s="32"/>
       <c r="D68" s="51"/>
       <c r="E68" s="42"/>
-      <c r="F68" s="111"/>
+      <c r="F68" s="108"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="31" t="str" cm="1">
@@ -9878,7 +9884,7 @@
       <c r="C69" s="32"/>
       <c r="D69" s="51"/>
       <c r="E69" s="42"/>
-      <c r="F69" s="111"/>
+      <c r="F69" s="108"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="31" t="str" cm="1">
@@ -9888,7 +9894,7 @@
       <c r="C70" s="32"/>
       <c r="D70" s="51"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="111"/>
+      <c r="F70" s="108"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="31" t="str" cm="1">
@@ -9898,7 +9904,7 @@
       <c r="C71" s="32"/>
       <c r="D71" s="51"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="111"/>
+      <c r="F71" s="108"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="31" t="str" cm="1">
@@ -9908,7 +9914,7 @@
       <c r="C72" s="32"/>
       <c r="D72" s="51"/>
       <c r="E72" s="42"/>
-      <c r="F72" s="111"/>
+      <c r="F72" s="108"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="31" t="str" cm="1">
@@ -9918,7 +9924,7 @@
       <c r="C73" s="32"/>
       <c r="D73" s="51"/>
       <c r="E73" s="42"/>
-      <c r="F73" s="111"/>
+      <c r="F73" s="108"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="31" t="str" cm="1">
@@ -9928,7 +9934,7 @@
       <c r="C74" s="32"/>
       <c r="D74" s="51"/>
       <c r="E74" s="42"/>
-      <c r="F74" s="111"/>
+      <c r="F74" s="108"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="31" t="str" cm="1">
@@ -9938,7 +9944,7 @@
       <c r="C75" s="32"/>
       <c r="D75" s="51"/>
       <c r="E75" s="42"/>
-      <c r="F75" s="111"/>
+      <c r="F75" s="108"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="31" t="str" cm="1">
@@ -9948,7 +9954,7 @@
       <c r="C76" s="32"/>
       <c r="D76" s="51"/>
       <c r="E76" s="42"/>
-      <c r="F76" s="111"/>
+      <c r="F76" s="108"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="31" t="str" cm="1">
@@ -9958,7 +9964,7 @@
       <c r="C77" s="32"/>
       <c r="D77" s="51"/>
       <c r="E77" s="42"/>
-      <c r="F77" s="111"/>
+      <c r="F77" s="108"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="31" t="str" cm="1">
@@ -9968,7 +9974,7 @@
       <c r="C78" s="32"/>
       <c r="D78" s="51"/>
       <c r="E78" s="42"/>
-      <c r="F78" s="111"/>
+      <c r="F78" s="108"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="31" t="str" cm="1">
@@ -9978,7 +9984,7 @@
       <c r="C79" s="32"/>
       <c r="D79" s="51"/>
       <c r="E79" s="42"/>
-      <c r="F79" s="111"/>
+      <c r="F79" s="108"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="31" t="str" cm="1">
@@ -9988,7 +9994,7 @@
       <c r="C80" s="32"/>
       <c r="D80" s="51"/>
       <c r="E80" s="42"/>
-      <c r="F80" s="111"/>
+      <c r="F80" s="108"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="31" t="str" cm="1">
@@ -9998,7 +10004,7 @@
       <c r="C81" s="32"/>
       <c r="D81" s="51"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="111"/>
+      <c r="F81" s="108"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="31" t="str" cm="1">
@@ -10008,7 +10014,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="51"/>
       <c r="E82" s="42"/>
-      <c r="F82" s="111"/>
+      <c r="F82" s="108"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="31" t="str" cm="1">
@@ -10018,7 +10024,7 @@
       <c r="C83" s="32"/>
       <c r="D83" s="51"/>
       <c r="E83" s="42"/>
-      <c r="F83" s="111"/>
+      <c r="F83" s="108"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="31" t="str" cm="1">
@@ -10028,7 +10034,7 @@
       <c r="C84" s="32"/>
       <c r="D84" s="51"/>
       <c r="E84" s="42"/>
-      <c r="F84" s="111"/>
+      <c r="F84" s="108"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="31" t="str" cm="1">
@@ -10038,7 +10044,7 @@
       <c r="C85" s="32"/>
       <c r="D85" s="51"/>
       <c r="E85" s="42"/>
-      <c r="F85" s="111"/>
+      <c r="F85" s="108"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="31" t="str" cm="1">
@@ -10048,7 +10054,7 @@
       <c r="C86" s="32"/>
       <c r="D86" s="51"/>
       <c r="E86" s="42"/>
-      <c r="F86" s="111"/>
+      <c r="F86" s="108"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="31" t="str" cm="1">
@@ -10058,7 +10064,7 @@
       <c r="C87" s="32"/>
       <c r="D87" s="51"/>
       <c r="E87" s="42"/>
-      <c r="F87" s="111"/>
+      <c r="F87" s="108"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="31" t="str" cm="1">
@@ -10068,7 +10074,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="51"/>
       <c r="E88" s="42"/>
-      <c r="F88" s="111"/>
+      <c r="F88" s="108"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="31" t="str" cm="1">
@@ -10078,7 +10084,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="51"/>
       <c r="E89" s="42"/>
-      <c r="F89" s="111"/>
+      <c r="F89" s="108"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="str" cm="1">
@@ -10088,7 +10094,7 @@
       <c r="C90" s="32"/>
       <c r="D90" s="51"/>
       <c r="E90" s="42"/>
-      <c r="F90" s="111"/>
+      <c r="F90" s="108"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="str" cm="1">
@@ -10098,7 +10104,7 @@
       <c r="C91" s="32"/>
       <c r="D91" s="51"/>
       <c r="E91" s="42"/>
-      <c r="F91" s="111"/>
+      <c r="F91" s="108"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="31" t="str" cm="1">
@@ -10108,7 +10114,7 @@
       <c r="C92" s="32"/>
       <c r="D92" s="51"/>
       <c r="E92" s="42"/>
-      <c r="F92" s="111"/>
+      <c r="F92" s="108"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="31" t="str" cm="1">
@@ -10118,7 +10124,7 @@
       <c r="C93" s="32"/>
       <c r="D93" s="51"/>
       <c r="E93" s="42"/>
-      <c r="F93" s="111"/>
+      <c r="F93" s="108"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="str" cm="1">
@@ -10128,7 +10134,7 @@
       <c r="C94" s="32"/>
       <c r="D94" s="51"/>
       <c r="E94" s="42"/>
-      <c r="F94" s="111"/>
+      <c r="F94" s="108"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="str" cm="1">
@@ -10138,7 +10144,7 @@
       <c r="C95" s="32"/>
       <c r="D95" s="51"/>
       <c r="E95" s="42"/>
-      <c r="F95" s="111"/>
+      <c r="F95" s="108"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="31" t="str" cm="1">
@@ -10148,7 +10154,7 @@
       <c r="C96" s="32"/>
       <c r="D96" s="51"/>
       <c r="E96" s="42"/>
-      <c r="F96" s="111"/>
+      <c r="F96" s="108"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="str" cm="1">
@@ -10158,7 +10164,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="51"/>
       <c r="E97" s="42"/>
-      <c r="F97" s="111"/>
+      <c r="F97" s="108"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="31" t="str" cm="1">
@@ -10168,7 +10174,7 @@
       <c r="C98" s="32"/>
       <c r="D98" s="51"/>
       <c r="E98" s="42"/>
-      <c r="F98" s="111"/>
+      <c r="F98" s="108"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="31" t="str" cm="1">
@@ -10178,7 +10184,7 @@
       <c r="C99" s="32"/>
       <c r="D99" s="51"/>
       <c r="E99" s="42"/>
-      <c r="F99" s="111"/>
+      <c r="F99" s="108"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="31" t="str" cm="1">
@@ -10188,7 +10194,7 @@
       <c r="C100" s="32"/>
       <c r="D100" s="51"/>
       <c r="E100" s="42"/>
-      <c r="F100" s="111"/>
+      <c r="F100" s="108"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="31" t="str" cm="1">
@@ -10198,7 +10204,7 @@
       <c r="C101" s="32"/>
       <c r="D101" s="51"/>
       <c r="E101" s="42"/>
-      <c r="F101" s="111"/>
+      <c r="F101" s="108"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="31" t="str" cm="1">
@@ -10208,7 +10214,7 @@
       <c r="C102" s="32"/>
       <c r="D102" s="51"/>
       <c r="E102" s="42"/>
-      <c r="F102" s="111"/>
+      <c r="F102" s="108"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="31" t="str" cm="1">
@@ -10218,7 +10224,7 @@
       <c r="C103" s="32"/>
       <c r="D103" s="51"/>
       <c r="E103" s="42"/>
-      <c r="F103" s="111"/>
+      <c r="F103" s="108"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="31" t="str" cm="1">
@@ -10228,7 +10234,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="51"/>
       <c r="E104" s="42"/>
-      <c r="F104" s="111"/>
+      <c r="F104" s="108"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="31" t="str" cm="1">
@@ -10238,7 +10244,7 @@
       <c r="C105" s="32"/>
       <c r="D105" s="51"/>
       <c r="E105" s="42"/>
-      <c r="F105" s="111"/>
+      <c r="F105" s="108"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="31" t="str" cm="1">
@@ -10248,7 +10254,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="51"/>
       <c r="E106" s="42"/>
-      <c r="F106" s="111"/>
+      <c r="F106" s="108"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="31" t="str" cm="1">
@@ -10258,7 +10264,7 @@
       <c r="C107" s="32"/>
       <c r="D107" s="51"/>
       <c r="E107" s="42"/>
-      <c r="F107" s="111"/>
+      <c r="F107" s="108"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="31" t="str" cm="1">
@@ -10268,7 +10274,7 @@
       <c r="C108" s="32"/>
       <c r="D108" s="51"/>
       <c r="E108" s="42"/>
-      <c r="F108" s="111"/>
+      <c r="F108" s="108"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="31" t="str" cm="1">
@@ -10278,7 +10284,7 @@
       <c r="C109" s="32"/>
       <c r="D109" s="51"/>
       <c r="E109" s="42"/>
-      <c r="F109" s="111"/>
+      <c r="F109" s="108"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="31" t="str" cm="1">
@@ -10288,7 +10294,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="51"/>
       <c r="E110" s="42"/>
-      <c r="F110" s="111"/>
+      <c r="F110" s="108"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="31" t="str" cm="1">
@@ -10298,7 +10304,7 @@
       <c r="C111" s="32"/>
       <c r="D111" s="51"/>
       <c r="E111" s="42"/>
-      <c r="F111" s="111"/>
+      <c r="F111" s="108"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="31" t="str" cm="1">
@@ -10308,7 +10314,7 @@
       <c r="C112" s="32"/>
       <c r="D112" s="51"/>
       <c r="E112" s="42"/>
-      <c r="F112" s="111"/>
+      <c r="F112" s="108"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="31" t="str" cm="1">
@@ -10318,7 +10324,7 @@
       <c r="C113" s="32"/>
       <c r="D113" s="51"/>
       <c r="E113" s="42"/>
-      <c r="F113" s="111"/>
+      <c r="F113" s="108"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="31" t="str" cm="1">
@@ -10328,7 +10334,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="51"/>
       <c r="E114" s="42"/>
-      <c r="F114" s="111"/>
+      <c r="F114" s="108"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="31" t="str" cm="1">
@@ -10338,7 +10344,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="51"/>
       <c r="E115" s="42"/>
-      <c r="F115" s="111"/>
+      <c r="F115" s="108"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="31" t="str" cm="1">
@@ -10348,7 +10354,7 @@
       <c r="C116" s="32"/>
       <c r="D116" s="51"/>
       <c r="E116" s="42"/>
-      <c r="F116" s="111"/>
+      <c r="F116" s="108"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="31" t="str" cm="1">
@@ -10358,7 +10364,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="51"/>
       <c r="E117" s="42"/>
-      <c r="F117" s="111"/>
+      <c r="F117" s="108"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="31" t="str" cm="1">
@@ -10368,7 +10374,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="51"/>
       <c r="E118" s="42"/>
-      <c r="F118" s="111"/>
+      <c r="F118" s="108"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="31" t="str" cm="1">
@@ -10378,7 +10384,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="51"/>
       <c r="E119" s="42"/>
-      <c r="F119" s="111"/>
+      <c r="F119" s="108"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="31" t="str" cm="1">
@@ -10388,7 +10394,7 @@
       <c r="C120" s="32"/>
       <c r="D120" s="51"/>
       <c r="E120" s="42"/>
-      <c r="F120" s="111"/>
+      <c r="F120" s="108"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="31" t="str" cm="1">
@@ -10398,7 +10404,7 @@
       <c r="C121" s="32"/>
       <c r="D121" s="51"/>
       <c r="E121" s="42"/>
-      <c r="F121" s="111"/>
+      <c r="F121" s="108"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="31" t="str" cm="1">
@@ -10408,7 +10414,7 @@
       <c r="C122" s="32"/>
       <c r="D122" s="51"/>
       <c r="E122" s="42"/>
-      <c r="F122" s="111"/>
+      <c r="F122" s="108"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="31" t="str" cm="1">
@@ -10418,7 +10424,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="51"/>
       <c r="E123" s="42"/>
-      <c r="F123" s="111"/>
+      <c r="F123" s="108"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="31" t="str" cm="1">
@@ -10428,7 +10434,7 @@
       <c r="C124" s="32"/>
       <c r="D124" s="51"/>
       <c r="E124" s="42"/>
-      <c r="F124" s="111"/>
+      <c r="F124" s="108"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="31" t="str" cm="1">
@@ -10438,7 +10444,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="51"/>
       <c r="E125" s="42"/>
-      <c r="F125" s="111"/>
+      <c r="F125" s="108"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="31" t="str" cm="1">
@@ -10448,7 +10454,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="51"/>
       <c r="E126" s="42"/>
-      <c r="F126" s="111"/>
+      <c r="F126" s="108"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="31" t="str" cm="1">
@@ -10458,7 +10464,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="51"/>
       <c r="E127" s="42"/>
-      <c r="F127" s="111"/>
+      <c r="F127" s="108"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="31" t="str" cm="1">
@@ -10468,7 +10474,7 @@
       <c r="C128" s="32"/>
       <c r="D128" s="51"/>
       <c r="E128" s="42"/>
-      <c r="F128" s="111"/>
+      <c r="F128" s="108"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="31" t="str" cm="1">
@@ -10478,7 +10484,7 @@
       <c r="C129" s="32"/>
       <c r="D129" s="51"/>
       <c r="E129" s="42"/>
-      <c r="F129" s="111"/>
+      <c r="F129" s="108"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="31" t="str" cm="1">
@@ -10488,7 +10494,7 @@
       <c r="C130" s="32"/>
       <c r="D130" s="51"/>
       <c r="E130" s="42"/>
-      <c r="F130" s="111"/>
+      <c r="F130" s="108"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="31" t="str" cm="1">
@@ -10498,7 +10504,7 @@
       <c r="C131" s="32"/>
       <c r="D131" s="51"/>
       <c r="E131" s="42"/>
-      <c r="F131" s="111"/>
+      <c r="F131" s="108"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="31" t="str" cm="1">
@@ -10508,7 +10514,7 @@
       <c r="C132" s="32"/>
       <c r="D132" s="51"/>
       <c r="E132" s="42"/>
-      <c r="F132" s="111"/>
+      <c r="F132" s="108"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="31" t="str" cm="1">
@@ -10518,7 +10524,7 @@
       <c r="C133" s="32"/>
       <c r="D133" s="51"/>
       <c r="E133" s="42"/>
-      <c r="F133" s="111"/>
+      <c r="F133" s="108"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="31" t="str" cm="1">
@@ -10528,7 +10534,7 @@
       <c r="C134" s="32"/>
       <c r="D134" s="51"/>
       <c r="E134" s="42"/>
-      <c r="F134" s="111"/>
+      <c r="F134" s="108"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="31" t="str" cm="1">
@@ -10538,7 +10544,7 @@
       <c r="C135" s="32"/>
       <c r="D135" s="51"/>
       <c r="E135" s="42"/>
-      <c r="F135" s="111"/>
+      <c r="F135" s="108"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="31" t="str" cm="1">
@@ -10548,7 +10554,7 @@
       <c r="C136" s="32"/>
       <c r="D136" s="51"/>
       <c r="E136" s="42"/>
-      <c r="F136" s="111"/>
+      <c r="F136" s="108"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="31" t="str" cm="1">
@@ -10558,7 +10564,7 @@
       <c r="C137" s="32"/>
       <c r="D137" s="51"/>
       <c r="E137" s="42"/>
-      <c r="F137" s="111"/>
+      <c r="F137" s="108"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="31" t="str" cm="1">
@@ -10568,7 +10574,7 @@
       <c r="C138" s="32"/>
       <c r="D138" s="51"/>
       <c r="E138" s="42"/>
-      <c r="F138" s="111"/>
+      <c r="F138" s="108"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="31" t="str" cm="1">
@@ -10578,7 +10584,7 @@
       <c r="C139" s="32"/>
       <c r="D139" s="51"/>
       <c r="E139" s="42"/>
-      <c r="F139" s="111"/>
+      <c r="F139" s="108"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="31" t="str" cm="1">
@@ -10588,7 +10594,7 @@
       <c r="C140" s="32"/>
       <c r="D140" s="51"/>
       <c r="E140" s="42"/>
-      <c r="F140" s="111"/>
+      <c r="F140" s="108"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="31" t="str" cm="1">
@@ -10598,7 +10604,7 @@
       <c r="C141" s="32"/>
       <c r="D141" s="51"/>
       <c r="E141" s="42"/>
-      <c r="F141" s="111"/>
+      <c r="F141" s="108"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="31" t="str" cm="1">
@@ -10608,7 +10614,7 @@
       <c r="C142" s="32"/>
       <c r="D142" s="51"/>
       <c r="E142" s="42"/>
-      <c r="F142" s="111"/>
+      <c r="F142" s="108"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="31" t="str" cm="1">
@@ -10618,7 +10624,7 @@
       <c r="C143" s="32"/>
       <c r="D143" s="51"/>
       <c r="E143" s="42"/>
-      <c r="F143" s="111"/>
+      <c r="F143" s="108"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="31" t="str" cm="1">
@@ -10628,7 +10634,7 @@
       <c r="C144" s="32"/>
       <c r="D144" s="51"/>
       <c r="E144" s="42"/>
-      <c r="F144" s="111"/>
+      <c r="F144" s="108"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="31" t="str" cm="1">
@@ -10638,7 +10644,7 @@
       <c r="C145" s="32"/>
       <c r="D145" s="51"/>
       <c r="E145" s="42"/>
-      <c r="F145" s="111"/>
+      <c r="F145" s="108"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="31" t="str" cm="1">
@@ -10648,7 +10654,7 @@
       <c r="C146" s="32"/>
       <c r="D146" s="51"/>
       <c r="E146" s="42"/>
-      <c r="F146" s="111"/>
+      <c r="F146" s="108"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="31" t="str" cm="1">
@@ -10658,7 +10664,7 @@
       <c r="C147" s="32"/>
       <c r="D147" s="51"/>
       <c r="E147" s="42"/>
-      <c r="F147" s="111"/>
+      <c r="F147" s="108"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="31" t="str" cm="1">
@@ -10668,7 +10674,7 @@
       <c r="C148" s="32"/>
       <c r="D148" s="51"/>
       <c r="E148" s="42"/>
-      <c r="F148" s="111"/>
+      <c r="F148" s="108"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="31" t="str" cm="1">
@@ -10678,7 +10684,7 @@
       <c r="C149" s="32"/>
       <c r="D149" s="51"/>
       <c r="E149" s="42"/>
-      <c r="F149" s="111"/>
+      <c r="F149" s="108"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="31" t="str" cm="1">
@@ -10688,7 +10694,7 @@
       <c r="C150" s="32"/>
       <c r="D150" s="51"/>
       <c r="E150" s="42"/>
-      <c r="F150" s="111"/>
+      <c r="F150" s="108"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="31" t="str" cm="1">
@@ -10698,7 +10704,7 @@
       <c r="C151" s="32"/>
       <c r="D151" s="51"/>
       <c r="E151" s="42"/>
-      <c r="F151" s="111"/>
+      <c r="F151" s="108"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="31" t="str" cm="1">
@@ -10708,7 +10714,7 @@
       <c r="C152" s="32"/>
       <c r="D152" s="51"/>
       <c r="E152" s="42"/>
-      <c r="F152" s="111"/>
+      <c r="F152" s="108"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="31" t="str" cm="1">
@@ -10718,7 +10724,7 @@
       <c r="C153" s="32"/>
       <c r="D153" s="51"/>
       <c r="E153" s="42"/>
-      <c r="F153" s="111"/>
+      <c r="F153" s="108"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="31" t="str" cm="1">
@@ -10728,7 +10734,7 @@
       <c r="C154" s="32"/>
       <c r="D154" s="51"/>
       <c r="E154" s="42"/>
-      <c r="F154" s="111"/>
+      <c r="F154" s="108"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="31" t="str" cm="1">
@@ -10738,7 +10744,7 @@
       <c r="C155" s="32"/>
       <c r="D155" s="51"/>
       <c r="E155" s="42"/>
-      <c r="F155" s="111"/>
+      <c r="F155" s="108"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="31" t="str" cm="1">
@@ -10748,7 +10754,7 @@
       <c r="C156" s="32"/>
       <c r="D156" s="51"/>
       <c r="E156" s="42"/>
-      <c r="F156" s="111"/>
+      <c r="F156" s="108"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="31" t="str" cm="1">
@@ -10758,7 +10764,7 @@
       <c r="C157" s="32"/>
       <c r="D157" s="51"/>
       <c r="E157" s="42"/>
-      <c r="F157" s="111"/>
+      <c r="F157" s="108"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="31" t="str" cm="1">
@@ -10768,7 +10774,7 @@
       <c r="C158" s="32"/>
       <c r="D158" s="51"/>
       <c r="E158" s="42"/>
-      <c r="F158" s="111"/>
+      <c r="F158" s="108"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="31" t="str" cm="1">
@@ -10778,7 +10784,7 @@
       <c r="C159" s="32"/>
       <c r="D159" s="51"/>
       <c r="E159" s="42"/>
-      <c r="F159" s="111"/>
+      <c r="F159" s="108"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="31" t="str" cm="1">
@@ -10788,7 +10794,7 @@
       <c r="C160" s="32"/>
       <c r="D160" s="51"/>
       <c r="E160" s="42"/>
-      <c r="F160" s="111"/>
+      <c r="F160" s="108"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="31" t="str" cm="1">
@@ -10798,7 +10804,7 @@
       <c r="C161" s="32"/>
       <c r="D161" s="51"/>
       <c r="E161" s="42"/>
-      <c r="F161" s="111"/>
+      <c r="F161" s="108"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="31" t="str" cm="1">
@@ -10808,7 +10814,7 @@
       <c r="C162" s="32"/>
       <c r="D162" s="51"/>
       <c r="E162" s="42"/>
-      <c r="F162" s="111"/>
+      <c r="F162" s="108"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="31" t="str" cm="1">
@@ -10818,7 +10824,7 @@
       <c r="C163" s="32"/>
       <c r="D163" s="51"/>
       <c r="E163" s="42"/>
-      <c r="F163" s="111"/>
+      <c r="F163" s="108"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="31" t="str" cm="1">
@@ -10828,7 +10834,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="51"/>
       <c r="E164" s="42"/>
-      <c r="F164" s="111"/>
+      <c r="F164" s="108"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="31" t="str" cm="1">
@@ -10838,7 +10844,7 @@
       <c r="C165" s="32"/>
       <c r="D165" s="51"/>
       <c r="E165" s="42"/>
-      <c r="F165" s="111"/>
+      <c r="F165" s="108"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="31" t="str" cm="1">
@@ -10848,7 +10854,7 @@
       <c r="C166" s="32"/>
       <c r="D166" s="51"/>
       <c r="E166" s="42"/>
-      <c r="F166" s="111"/>
+      <c r="F166" s="108"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="31" t="str" cm="1">
@@ -10858,7 +10864,7 @@
       <c r="C167" s="32"/>
       <c r="D167" s="51"/>
       <c r="E167" s="42"/>
-      <c r="F167" s="111"/>
+      <c r="F167" s="108"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="31" t="str" cm="1">
@@ -10868,7 +10874,7 @@
       <c r="C168" s="32"/>
       <c r="D168" s="51"/>
       <c r="E168" s="42"/>
-      <c r="F168" s="111"/>
+      <c r="F168" s="108"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="31" t="str" cm="1">
@@ -10878,7 +10884,7 @@
       <c r="C169" s="32"/>
       <c r="D169" s="51"/>
       <c r="E169" s="42"/>
-      <c r="F169" s="111"/>
+      <c r="F169" s="108"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="31" t="str" cm="1">
@@ -10888,7 +10894,7 @@
       <c r="C170" s="32"/>
       <c r="D170" s="51"/>
       <c r="E170" s="42"/>
-      <c r="F170" s="111"/>
+      <c r="F170" s="108"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="31" t="str" cm="1">
@@ -10898,7 +10904,7 @@
       <c r="C171" s="32"/>
       <c r="D171" s="51"/>
       <c r="E171" s="42"/>
-      <c r="F171" s="111"/>
+      <c r="F171" s="108"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="31" t="str" cm="1">
@@ -10908,7 +10914,7 @@
       <c r="C172" s="32"/>
       <c r="D172" s="51"/>
       <c r="E172" s="42"/>
-      <c r="F172" s="111"/>
+      <c r="F172" s="108"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="31" t="str" cm="1">
@@ -10918,7 +10924,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="51"/>
       <c r="E173" s="42"/>
-      <c r="F173" s="111"/>
+      <c r="F173" s="108"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="31" t="str" cm="1">
@@ -10928,7 +10934,7 @@
       <c r="C174" s="32"/>
       <c r="D174" s="51"/>
       <c r="E174" s="42"/>
-      <c r="F174" s="111"/>
+      <c r="F174" s="108"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="31" t="str" cm="1">
@@ -10938,7 +10944,7 @@
       <c r="C175" s="32"/>
       <c r="D175" s="51"/>
       <c r="E175" s="42"/>
-      <c r="F175" s="111"/>
+      <c r="F175" s="108"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="31" t="str" cm="1">
@@ -10948,7 +10954,7 @@
       <c r="C176" s="32"/>
       <c r="D176" s="51"/>
       <c r="E176" s="42"/>
-      <c r="F176" s="111"/>
+      <c r="F176" s="108"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="31" t="str" cm="1">
@@ -10958,7 +10964,7 @@
       <c r="C177" s="32"/>
       <c r="D177" s="51"/>
       <c r="E177" s="42"/>
-      <c r="F177" s="111"/>
+      <c r="F177" s="108"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="31" t="str" cm="1">
@@ -10968,7 +10974,7 @@
       <c r="C178" s="32"/>
       <c r="D178" s="51"/>
       <c r="E178" s="42"/>
-      <c r="F178" s="111"/>
+      <c r="F178" s="108"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="31" t="str" cm="1">
@@ -10978,7 +10984,7 @@
       <c r="C179" s="32"/>
       <c r="D179" s="51"/>
       <c r="E179" s="42"/>
-      <c r="F179" s="111"/>
+      <c r="F179" s="108"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="31" t="str" cm="1">
@@ -10988,7 +10994,7 @@
       <c r="C180" s="32"/>
       <c r="D180" s="51"/>
       <c r="E180" s="42"/>
-      <c r="F180" s="111"/>
+      <c r="F180" s="108"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="31" t="str" cm="1">
@@ -10998,7 +11004,7 @@
       <c r="C181" s="32"/>
       <c r="D181" s="51"/>
       <c r="E181" s="42"/>
-      <c r="F181" s="111"/>
+      <c r="F181" s="108"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="31" t="str" cm="1">
@@ -11008,7 +11014,7 @@
       <c r="C182" s="32"/>
       <c r="D182" s="51"/>
       <c r="E182" s="42"/>
-      <c r="F182" s="111"/>
+      <c r="F182" s="108"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="31" t="str" cm="1">
@@ -11018,7 +11024,7 @@
       <c r="C183" s="32"/>
       <c r="D183" s="51"/>
       <c r="E183" s="42"/>
-      <c r="F183" s="111"/>
+      <c r="F183" s="108"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="31" t="str" cm="1">
@@ -11028,7 +11034,7 @@
       <c r="C184" s="32"/>
       <c r="D184" s="51"/>
       <c r="E184" s="42"/>
-      <c r="F184" s="111"/>
+      <c r="F184" s="108"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="31" t="str" cm="1">
@@ -11038,7 +11044,7 @@
       <c r="C185" s="32"/>
       <c r="D185" s="51"/>
       <c r="E185" s="42"/>
-      <c r="F185" s="111"/>
+      <c r="F185" s="108"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="31" t="str" cm="1">
@@ -11048,7 +11054,7 @@
       <c r="C186" s="32"/>
       <c r="D186" s="51"/>
       <c r="E186" s="42"/>
-      <c r="F186" s="111"/>
+      <c r="F186" s="108"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="31" t="str" cm="1">
@@ -11058,7 +11064,7 @@
       <c r="C187" s="32"/>
       <c r="D187" s="51"/>
       <c r="E187" s="42"/>
-      <c r="F187" s="111"/>
+      <c r="F187" s="108"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="31" t="str" cm="1">
@@ -11068,7 +11074,7 @@
       <c r="C188" s="32"/>
       <c r="D188" s="51"/>
       <c r="E188" s="42"/>
-      <c r="F188" s="111"/>
+      <c r="F188" s="108"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="31" t="str" cm="1">
@@ -11078,7 +11084,7 @@
       <c r="C189" s="32"/>
       <c r="D189" s="51"/>
       <c r="E189" s="42"/>
-      <c r="F189" s="111"/>
+      <c r="F189" s="108"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="31" t="str" cm="1">
@@ -11088,7 +11094,7 @@
       <c r="C190" s="32"/>
       <c r="D190" s="51"/>
       <c r="E190" s="42"/>
-      <c r="F190" s="111"/>
+      <c r="F190" s="108"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="31" t="str" cm="1">
@@ -11098,7 +11104,7 @@
       <c r="C191" s="32"/>
       <c r="D191" s="51"/>
       <c r="E191" s="42"/>
-      <c r="F191" s="111"/>
+      <c r="F191" s="108"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="31" t="str" cm="1">
@@ -11108,7 +11114,7 @@
       <c r="C192" s="32"/>
       <c r="D192" s="51"/>
       <c r="E192" s="42"/>
-      <c r="F192" s="111"/>
+      <c r="F192" s="108"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="31" t="str" cm="1">
@@ -11118,7 +11124,7 @@
       <c r="C193" s="32"/>
       <c r="D193" s="51"/>
       <c r="E193" s="42"/>
-      <c r="F193" s="111"/>
+      <c r="F193" s="108"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="31" t="str" cm="1">
@@ -11128,7 +11134,7 @@
       <c r="C194" s="32"/>
       <c r="D194" s="51"/>
       <c r="E194" s="42"/>
-      <c r="F194" s="111"/>
+      <c r="F194" s="108"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="31" t="str" cm="1">
@@ -11138,7 +11144,7 @@
       <c r="C195" s="32"/>
       <c r="D195" s="51"/>
       <c r="E195" s="42"/>
-      <c r="F195" s="111"/>
+      <c r="F195" s="108"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="31" t="str" cm="1">
@@ -11148,7 +11154,7 @@
       <c r="C196" s="32"/>
       <c r="D196" s="51"/>
       <c r="E196" s="42"/>
-      <c r="F196" s="111"/>
+      <c r="F196" s="108"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="31" t="str" cm="1">
@@ -11158,7 +11164,7 @@
       <c r="C197" s="32"/>
       <c r="D197" s="51"/>
       <c r="E197" s="42"/>
-      <c r="F197" s="111"/>
+      <c r="F197" s="108"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="31" t="str" cm="1">
@@ -11168,7 +11174,7 @@
       <c r="C198" s="32"/>
       <c r="D198" s="51"/>
       <c r="E198" s="42"/>
-      <c r="F198" s="111"/>
+      <c r="F198" s="108"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="31" t="str" cm="1">
@@ -11178,7 +11184,7 @@
       <c r="C199" s="32"/>
       <c r="D199" s="51"/>
       <c r="E199" s="42"/>
-      <c r="F199" s="111"/>
+      <c r="F199" s="108"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="31" t="str" cm="1">
@@ -11188,7 +11194,7 @@
       <c r="C200" s="32"/>
       <c r="D200" s="51"/>
       <c r="E200" s="42"/>
-      <c r="F200" s="111"/>
+      <c r="F200" s="108"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="31" t="str" cm="1">
@@ -11198,7 +11204,7 @@
       <c r="C201" s="32"/>
       <c r="D201" s="51"/>
       <c r="E201" s="42"/>
-      <c r="F201" s="111"/>
+      <c r="F201" s="108"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="31" t="str" cm="1">
@@ -11208,7 +11214,7 @@
       <c r="C202" s="32"/>
       <c r="D202" s="51"/>
       <c r="E202" s="42"/>
-      <c r="F202" s="111"/>
+      <c r="F202" s="108"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="31" t="str" cm="1">
@@ -11218,7 +11224,7 @@
       <c r="C203" s="32"/>
       <c r="D203" s="51"/>
       <c r="E203" s="42"/>
-      <c r="F203" s="111"/>
+      <c r="F203" s="108"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="31" t="str" cm="1">
@@ -11228,7 +11234,7 @@
       <c r="C204" s="32"/>
       <c r="D204" s="51"/>
       <c r="E204" s="42"/>
-      <c r="F204" s="111"/>
+      <c r="F204" s="108"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="31" t="str" cm="1">
@@ -11238,7 +11244,7 @@
       <c r="C205" s="32"/>
       <c r="D205" s="51"/>
       <c r="E205" s="42"/>
-      <c r="F205" s="111"/>
+      <c r="F205" s="108"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="31" t="str" cm="1">
@@ -11248,7 +11254,7 @@
       <c r="C206" s="32"/>
       <c r="D206" s="51"/>
       <c r="E206" s="42"/>
-      <c r="F206" s="111"/>
+      <c r="F206" s="108"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="31" t="str" cm="1">
@@ -11258,7 +11264,7 @@
       <c r="C207" s="32"/>
       <c r="D207" s="51"/>
       <c r="E207" s="42"/>
-      <c r="F207" s="111"/>
+      <c r="F207" s="108"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="31" t="str" cm="1">
@@ -11268,7 +11274,7 @@
       <c r="C208" s="32"/>
       <c r="D208" s="51"/>
       <c r="E208" s="42"/>
-      <c r="F208" s="111"/>
+      <c r="F208" s="108"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="31" t="str" cm="1">
@@ -11278,7 +11284,7 @@
       <c r="C209" s="32"/>
       <c r="D209" s="51"/>
       <c r="E209" s="42"/>
-      <c r="F209" s="111"/>
+      <c r="F209" s="108"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="31" t="str" cm="1">
@@ -11288,7 +11294,7 @@
       <c r="C210" s="32"/>
       <c r="D210" s="51"/>
       <c r="E210" s="42"/>
-      <c r="F210" s="111"/>
+      <c r="F210" s="108"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="31" t="str" cm="1">
@@ -11298,7 +11304,7 @@
       <c r="C211" s="32"/>
       <c r="D211" s="51"/>
       <c r="E211" s="42"/>
-      <c r="F211" s="111"/>
+      <c r="F211" s="108"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="31" t="str" cm="1">
@@ -11308,7 +11314,7 @@
       <c r="C212" s="32"/>
       <c r="D212" s="51"/>
       <c r="E212" s="42"/>
-      <c r="F212" s="111"/>
+      <c r="F212" s="108"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="31" t="str" cm="1">
@@ -11318,7 +11324,7 @@
       <c r="C213" s="32"/>
       <c r="D213" s="51"/>
       <c r="E213" s="42"/>
-      <c r="F213" s="111"/>
+      <c r="F213" s="108"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="31" t="str" cm="1">
@@ -11328,7 +11334,7 @@
       <c r="C214" s="32"/>
       <c r="D214" s="51"/>
       <c r="E214" s="42"/>
-      <c r="F214" s="111"/>
+      <c r="F214" s="108"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="31" t="str" cm="1">
@@ -11338,7 +11344,7 @@
       <c r="C215" s="32"/>
       <c r="D215" s="51"/>
       <c r="E215" s="42"/>
-      <c r="F215" s="111"/>
+      <c r="F215" s="108"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="31" t="str" cm="1">
@@ -11348,7 +11354,7 @@
       <c r="C216" s="32"/>
       <c r="D216" s="51"/>
       <c r="E216" s="42"/>
-      <c r="F216" s="111"/>
+      <c r="F216" s="108"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="31" t="str" cm="1">
@@ -11358,7 +11364,7 @@
       <c r="C217" s="32"/>
       <c r="D217" s="51"/>
       <c r="E217" s="42"/>
-      <c r="F217" s="111"/>
+      <c r="F217" s="108"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="31" t="str" cm="1">
@@ -11368,7 +11374,7 @@
       <c r="C218" s="32"/>
       <c r="D218" s="51"/>
       <c r="E218" s="42"/>
-      <c r="F218" s="111"/>
+      <c r="F218" s="108"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="31" t="str" cm="1">
@@ -11378,7 +11384,7 @@
       <c r="C219" s="32"/>
       <c r="D219" s="51"/>
       <c r="E219" s="42"/>
-      <c r="F219" s="111"/>
+      <c r="F219" s="108"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="31" t="str" cm="1">
@@ -11388,7 +11394,7 @@
       <c r="C220" s="32"/>
       <c r="D220" s="51"/>
       <c r="E220" s="42"/>
-      <c r="F220" s="111"/>
+      <c r="F220" s="108"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="31" t="str" cm="1">
@@ -11398,7 +11404,7 @@
       <c r="C221" s="32"/>
       <c r="D221" s="51"/>
       <c r="E221" s="42"/>
-      <c r="F221" s="111"/>
+      <c r="F221" s="108"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="31" t="str" cm="1">
@@ -11408,7 +11414,7 @@
       <c r="C222" s="32"/>
       <c r="D222" s="51"/>
       <c r="E222" s="42"/>
-      <c r="F222" s="111"/>
+      <c r="F222" s="108"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="31" t="str" cm="1">
@@ -11418,7 +11424,7 @@
       <c r="C223" s="32"/>
       <c r="D223" s="51"/>
       <c r="E223" s="42"/>
-      <c r="F223" s="111"/>
+      <c r="F223" s="108"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="31" t="str" cm="1">
@@ -11428,7 +11434,7 @@
       <c r="C224" s="32"/>
       <c r="D224" s="51"/>
       <c r="E224" s="42"/>
-      <c r="F224" s="111"/>
+      <c r="F224" s="108"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="31" t="str" cm="1">
@@ -11438,7 +11444,7 @@
       <c r="C225" s="32"/>
       <c r="D225" s="51"/>
       <c r="E225" s="42"/>
-      <c r="F225" s="111"/>
+      <c r="F225" s="108"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="31" t="str" cm="1">
@@ -11448,7 +11454,7 @@
       <c r="C226" s="32"/>
       <c r="D226" s="51"/>
       <c r="E226" s="42"/>
-      <c r="F226" s="111"/>
+      <c r="F226" s="108"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="31" t="str" cm="1">
@@ -11458,7 +11464,7 @@
       <c r="C227" s="32"/>
       <c r="D227" s="51"/>
       <c r="E227" s="42"/>
-      <c r="F227" s="111"/>
+      <c r="F227" s="108"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="31" t="str" cm="1">
@@ -11468,7 +11474,7 @@
       <c r="C228" s="32"/>
       <c r="D228" s="51"/>
       <c r="E228" s="42"/>
-      <c r="F228" s="111"/>
+      <c r="F228" s="108"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="31" t="str" cm="1">
@@ -11478,7 +11484,7 @@
       <c r="C229" s="32"/>
       <c r="D229" s="51"/>
       <c r="E229" s="42"/>
-      <c r="F229" s="111"/>
+      <c r="F229" s="108"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="31" t="str" cm="1">
@@ -11488,7 +11494,7 @@
       <c r="C230" s="32"/>
       <c r="D230" s="51"/>
       <c r="E230" s="42"/>
-      <c r="F230" s="111"/>
+      <c r="F230" s="108"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="31" t="str" cm="1">
@@ -11498,7 +11504,7 @@
       <c r="C231" s="32"/>
       <c r="D231" s="51"/>
       <c r="E231" s="42"/>
-      <c r="F231" s="111"/>
+      <c r="F231" s="108"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="31" t="str" cm="1">
@@ -11508,7 +11514,7 @@
       <c r="C232" s="32"/>
       <c r="D232" s="51"/>
       <c r="E232" s="42"/>
-      <c r="F232" s="111"/>
+      <c r="F232" s="108"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="31" t="str" cm="1">
@@ -11518,7 +11524,7 @@
       <c r="C233" s="32"/>
       <c r="D233" s="51"/>
       <c r="E233" s="42"/>
-      <c r="F233" s="111"/>
+      <c r="F233" s="108"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="31" t="str" cm="1">
@@ -11528,7 +11534,7 @@
       <c r="C234" s="32"/>
       <c r="D234" s="51"/>
       <c r="E234" s="42"/>
-      <c r="F234" s="111"/>
+      <c r="F234" s="108"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="31" t="str" cm="1">
@@ -11538,7 +11544,7 @@
       <c r="C235" s="32"/>
       <c r="D235" s="51"/>
       <c r="E235" s="42"/>
-      <c r="F235" s="111"/>
+      <c r="F235" s="108"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="31" t="str" cm="1">
@@ -11548,7 +11554,7 @@
       <c r="C236" s="32"/>
       <c r="D236" s="51"/>
       <c r="E236" s="42"/>
-      <c r="F236" s="111"/>
+      <c r="F236" s="108"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="31" t="str" cm="1">
@@ -11558,7 +11564,7 @@
       <c r="C237" s="32"/>
       <c r="D237" s="51"/>
       <c r="E237" s="42"/>
-      <c r="F237" s="111"/>
+      <c r="F237" s="108"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="31" t="str" cm="1">
@@ -11568,7 +11574,7 @@
       <c r="C238" s="32"/>
       <c r="D238" s="51"/>
       <c r="E238" s="42"/>
-      <c r="F238" s="111"/>
+      <c r="F238" s="108"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="31" t="str" cm="1">
@@ -11578,7 +11584,7 @@
       <c r="C239" s="32"/>
       <c r="D239" s="51"/>
       <c r="E239" s="42"/>
-      <c r="F239" s="111"/>
+      <c r="F239" s="108"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="31" t="str" cm="1">
@@ -11588,7 +11594,7 @@
       <c r="C240" s="32"/>
       <c r="D240" s="51"/>
       <c r="E240" s="42"/>
-      <c r="F240" s="111"/>
+      <c r="F240" s="108"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="31" t="str" cm="1">
@@ -11598,7 +11604,7 @@
       <c r="C241" s="32"/>
       <c r="D241" s="51"/>
       <c r="E241" s="42"/>
-      <c r="F241" s="111"/>
+      <c r="F241" s="108"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="31" t="str" cm="1">
@@ -11608,7 +11614,7 @@
       <c r="C242" s="32"/>
       <c r="D242" s="51"/>
       <c r="E242" s="42"/>
-      <c r="F242" s="111"/>
+      <c r="F242" s="108"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="31" t="str" cm="1">
@@ -11618,7 +11624,7 @@
       <c r="C243" s="32"/>
       <c r="D243" s="51"/>
       <c r="E243" s="42"/>
-      <c r="F243" s="111"/>
+      <c r="F243" s="108"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="31" t="str" cm="1">
@@ -11628,7 +11634,7 @@
       <c r="C244" s="32"/>
       <c r="D244" s="51"/>
       <c r="E244" s="42"/>
-      <c r="F244" s="111"/>
+      <c r="F244" s="108"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="31" t="str" cm="1">
@@ -11638,7 +11644,7 @@
       <c r="C245" s="32"/>
       <c r="D245" s="51"/>
       <c r="E245" s="42"/>
-      <c r="F245" s="111"/>
+      <c r="F245" s="108"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="31" t="str" cm="1">
@@ -11648,7 +11654,7 @@
       <c r="C246" s="32"/>
       <c r="D246" s="51"/>
       <c r="E246" s="42"/>
-      <c r="F246" s="111"/>
+      <c r="F246" s="108"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="31" t="str" cm="1">
@@ -11658,7 +11664,7 @@
       <c r="C247" s="32"/>
       <c r="D247" s="51"/>
       <c r="E247" s="42"/>
-      <c r="F247" s="111"/>
+      <c r="F247" s="108"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="31" t="str" cm="1">
@@ -11668,7 +11674,7 @@
       <c r="C248" s="32"/>
       <c r="D248" s="51"/>
       <c r="E248" s="42"/>
-      <c r="F248" s="111"/>
+      <c r="F248" s="108"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="31" t="str" cm="1">
@@ -11678,7 +11684,7 @@
       <c r="C249" s="32"/>
       <c r="D249" s="51"/>
       <c r="E249" s="42"/>
-      <c r="F249" s="111"/>
+      <c r="F249" s="108"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="31" t="str" cm="1">
@@ -11688,7 +11694,7 @@
       <c r="C250" s="32"/>
       <c r="D250" s="51"/>
       <c r="E250" s="42"/>
-      <c r="F250" s="111"/>
+      <c r="F250" s="108"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="31" t="str" cm="1">
@@ -11698,7 +11704,7 @@
       <c r="C251" s="32"/>
       <c r="D251" s="51"/>
       <c r="E251" s="42"/>
-      <c r="F251" s="111"/>
+      <c r="F251" s="108"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="31" t="str" cm="1">
@@ -11708,7 +11714,7 @@
       <c r="C252" s="32"/>
       <c r="D252" s="51"/>
       <c r="E252" s="42"/>
-      <c r="F252" s="111"/>
+      <c r="F252" s="108"/>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="31" t="str" cm="1">
@@ -11718,7 +11724,7 @@
       <c r="C253" s="32"/>
       <c r="D253" s="51"/>
       <c r="E253" s="42"/>
-      <c r="F253" s="111"/>
+      <c r="F253" s="108"/>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="31" t="str" cm="1">
@@ -11728,7 +11734,7 @@
       <c r="C254" s="32"/>
       <c r="D254" s="51"/>
       <c r="E254" s="42"/>
-      <c r="F254" s="111"/>
+      <c r="F254" s="108"/>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="31" t="str" cm="1">
@@ -11738,7 +11744,7 @@
       <c r="C255" s="32"/>
       <c r="D255" s="51"/>
       <c r="E255" s="42"/>
-      <c r="F255" s="111"/>
+      <c r="F255" s="108"/>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="31" t="str" cm="1">
@@ -11748,7 +11754,7 @@
       <c r="C256" s="32"/>
       <c r="D256" s="51"/>
       <c r="E256" s="42"/>
-      <c r="F256" s="111"/>
+      <c r="F256" s="108"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="31" t="str" cm="1">
@@ -11758,7 +11764,7 @@
       <c r="C257" s="32"/>
       <c r="D257" s="51"/>
       <c r="E257" s="42"/>
-      <c r="F257" s="111"/>
+      <c r="F257" s="108"/>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="31" t="str" cm="1">
@@ -11768,7 +11774,7 @@
       <c r="C258" s="32"/>
       <c r="D258" s="51"/>
       <c r="E258" s="42"/>
-      <c r="F258" s="111"/>
+      <c r="F258" s="108"/>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="31" t="str" cm="1">
@@ -11778,7 +11784,7 @@
       <c r="C259" s="32"/>
       <c r="D259" s="51"/>
       <c r="E259" s="42"/>
-      <c r="F259" s="111"/>
+      <c r="F259" s="108"/>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="31" t="str" cm="1">
@@ -11788,7 +11794,7 @@
       <c r="C260" s="32"/>
       <c r="D260" s="51"/>
       <c r="E260" s="42"/>
-      <c r="F260" s="111"/>
+      <c r="F260" s="108"/>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="31" t="str" cm="1">
@@ -11798,7 +11804,7 @@
       <c r="C261" s="32"/>
       <c r="D261" s="51"/>
       <c r="E261" s="42"/>
-      <c r="F261" s="111"/>
+      <c r="F261" s="108"/>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="31" t="str" cm="1">
@@ -11808,7 +11814,7 @@
       <c r="C262" s="32"/>
       <c r="D262" s="51"/>
       <c r="E262" s="42"/>
-      <c r="F262" s="111"/>
+      <c r="F262" s="108"/>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="31" t="str" cm="1">
@@ -11818,7 +11824,7 @@
       <c r="C263" s="32"/>
       <c r="D263" s="51"/>
       <c r="E263" s="42"/>
-      <c r="F263" s="111"/>
+      <c r="F263" s="108"/>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="31" t="str" cm="1">
@@ -11828,7 +11834,7 @@
       <c r="C264" s="32"/>
       <c r="D264" s="51"/>
       <c r="E264" s="42"/>
-      <c r="F264" s="111"/>
+      <c r="F264" s="108"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="31" t="str" cm="1">
@@ -11838,7 +11844,7 @@
       <c r="C265" s="32"/>
       <c r="D265" s="51"/>
       <c r="E265" s="42"/>
-      <c r="F265" s="111"/>
+      <c r="F265" s="108"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="31" t="str" cm="1">
@@ -11848,7 +11854,7 @@
       <c r="C266" s="32"/>
       <c r="D266" s="51"/>
       <c r="E266" s="42"/>
-      <c r="F266" s="111"/>
+      <c r="F266" s="108"/>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="31" t="str" cm="1">
@@ -11858,7 +11864,7 @@
       <c r="C267" s="32"/>
       <c r="D267" s="51"/>
       <c r="E267" s="42"/>
-      <c r="F267" s="111"/>
+      <c r="F267" s="108"/>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="31" t="str" cm="1">
@@ -11868,7 +11874,7 @@
       <c r="C268" s="32"/>
       <c r="D268" s="51"/>
       <c r="E268" s="42"/>
-      <c r="F268" s="111"/>
+      <c r="F268" s="108"/>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="31" t="str" cm="1">
@@ -11878,7 +11884,7 @@
       <c r="C269" s="32"/>
       <c r="D269" s="51"/>
       <c r="E269" s="42"/>
-      <c r="F269" s="111"/>
+      <c r="F269" s="108"/>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="31" t="str" cm="1">
@@ -11888,7 +11894,7 @@
       <c r="C270" s="32"/>
       <c r="D270" s="51"/>
       <c r="E270" s="42"/>
-      <c r="F270" s="111"/>
+      <c r="F270" s="108"/>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="31" t="str" cm="1">
@@ -11898,7 +11904,7 @@
       <c r="C271" s="32"/>
       <c r="D271" s="51"/>
       <c r="E271" s="42"/>
-      <c r="F271" s="111"/>
+      <c r="F271" s="108"/>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="31" t="str" cm="1">
@@ -11908,7 +11914,7 @@
       <c r="C272" s="32"/>
       <c r="D272" s="51"/>
       <c r="E272" s="42"/>
-      <c r="F272" s="111"/>
+      <c r="F272" s="108"/>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="31" t="str" cm="1">
@@ -11918,7 +11924,7 @@
       <c r="C273" s="32"/>
       <c r="D273" s="51"/>
       <c r="E273" s="42"/>
-      <c r="F273" s="111"/>
+      <c r="F273" s="108"/>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="31" t="str" cm="1">
@@ -11928,7 +11934,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="51"/>
       <c r="E274" s="42"/>
-      <c r="F274" s="111"/>
+      <c r="F274" s="108"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="31" t="str" cm="1">
@@ -11938,7 +11944,7 @@
       <c r="C275" s="32"/>
       <c r="D275" s="51"/>
       <c r="E275" s="42"/>
-      <c r="F275" s="111"/>
+      <c r="F275" s="108"/>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="31" t="str" cm="1">
@@ -11948,7 +11954,7 @@
       <c r="C276" s="32"/>
       <c r="D276" s="51"/>
       <c r="E276" s="42"/>
-      <c r="F276" s="111"/>
+      <c r="F276" s="108"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="31" t="str" cm="1">
@@ -11958,7 +11964,7 @@
       <c r="C277" s="32"/>
       <c r="D277" s="51"/>
       <c r="E277" s="42"/>
-      <c r="F277" s="111"/>
+      <c r="F277" s="108"/>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="31" t="str" cm="1">
@@ -11968,7 +11974,7 @@
       <c r="C278" s="32"/>
       <c r="D278" s="51"/>
       <c r="E278" s="42"/>
-      <c r="F278" s="111"/>
+      <c r="F278" s="108"/>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="31" t="str" cm="1">
@@ -11978,7 +11984,7 @@
       <c r="C279" s="32"/>
       <c r="D279" s="51"/>
       <c r="E279" s="42"/>
-      <c r="F279" s="111"/>
+      <c r="F279" s="108"/>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="31" t="str" cm="1">
@@ -11988,7 +11994,7 @@
       <c r="C280" s="32"/>
       <c r="D280" s="51"/>
       <c r="E280" s="42"/>
-      <c r="F280" s="111"/>
+      <c r="F280" s="108"/>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="31" t="str" cm="1">
@@ -11998,7 +12004,7 @@
       <c r="C281" s="32"/>
       <c r="D281" s="51"/>
       <c r="E281" s="42"/>
-      <c r="F281" s="111"/>
+      <c r="F281" s="108"/>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="31" t="str" cm="1">
@@ -12008,7 +12014,7 @@
       <c r="C282" s="32"/>
       <c r="D282" s="51"/>
       <c r="E282" s="42"/>
-      <c r="F282" s="111"/>
+      <c r="F282" s="108"/>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="31" t="str" cm="1">
@@ -12018,7 +12024,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="51"/>
       <c r="E283" s="42"/>
-      <c r="F283" s="111"/>
+      <c r="F283" s="108"/>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="31" t="str" cm="1">
@@ -12028,7 +12034,7 @@
       <c r="C284" s="32"/>
       <c r="D284" s="51"/>
       <c r="E284" s="42"/>
-      <c r="F284" s="111"/>
+      <c r="F284" s="108"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="31" t="str" cm="1">
@@ -12038,7 +12044,7 @@
       <c r="C285" s="32"/>
       <c r="D285" s="51"/>
       <c r="E285" s="42"/>
-      <c r="F285" s="111"/>
+      <c r="F285" s="108"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="31" t="str" cm="1">
@@ -12048,7 +12054,7 @@
       <c r="C286" s="32"/>
       <c r="D286" s="51"/>
       <c r="E286" s="42"/>
-      <c r="F286" s="111"/>
+      <c r="F286" s="108"/>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="31" t="str" cm="1">
@@ -12058,7 +12064,7 @@
       <c r="C287" s="32"/>
       <c r="D287" s="51"/>
       <c r="E287" s="42"/>
-      <c r="F287" s="111"/>
+      <c r="F287" s="108"/>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="31" t="str" cm="1">
@@ -12068,7 +12074,7 @@
       <c r="C288" s="32"/>
       <c r="D288" s="51"/>
       <c r="E288" s="42"/>
-      <c r="F288" s="111"/>
+      <c r="F288" s="108"/>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="31" t="str" cm="1">
@@ -12078,7 +12084,7 @@
       <c r="C289" s="32"/>
       <c r="D289" s="51"/>
       <c r="E289" s="42"/>
-      <c r="F289" s="111"/>
+      <c r="F289" s="108"/>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="31" t="str" cm="1">
@@ -12088,7 +12094,7 @@
       <c r="C290" s="32"/>
       <c r="D290" s="51"/>
       <c r="E290" s="42"/>
-      <c r="F290" s="111"/>
+      <c r="F290" s="108"/>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="31" t="str" cm="1">
@@ -12098,7 +12104,7 @@
       <c r="C291" s="32"/>
       <c r="D291" s="51"/>
       <c r="E291" s="42"/>
-      <c r="F291" s="111"/>
+      <c r="F291" s="108"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="31" t="str" cm="1">
@@ -12108,7 +12114,7 @@
       <c r="C292" s="32"/>
       <c r="D292" s="51"/>
       <c r="E292" s="42"/>
-      <c r="F292" s="111"/>
+      <c r="F292" s="108"/>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="31" t="str" cm="1">
@@ -12118,7 +12124,7 @@
       <c r="C293" s="32"/>
       <c r="D293" s="51"/>
       <c r="E293" s="42"/>
-      <c r="F293" s="111"/>
+      <c r="F293" s="108"/>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="31" t="str" cm="1">
@@ -12128,7 +12134,7 @@
       <c r="C294" s="32"/>
       <c r="D294" s="51"/>
       <c r="E294" s="42"/>
-      <c r="F294" s="111"/>
+      <c r="F294" s="108"/>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="31" t="str" cm="1">
@@ -12138,7 +12144,7 @@
       <c r="C295" s="32"/>
       <c r="D295" s="51"/>
       <c r="E295" s="42"/>
-      <c r="F295" s="111"/>
+      <c r="F295" s="108"/>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="31" t="str" cm="1">
@@ -12148,7 +12154,7 @@
       <c r="C296" s="32"/>
       <c r="D296" s="51"/>
       <c r="E296" s="42"/>
-      <c r="F296" s="111"/>
+      <c r="F296" s="108"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="31" t="str" cm="1">
@@ -12158,7 +12164,7 @@
       <c r="C297" s="32"/>
       <c r="D297" s="51"/>
       <c r="E297" s="42"/>
-      <c r="F297" s="111"/>
+      <c r="F297" s="108"/>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="31" t="str" cm="1">
@@ -12168,7 +12174,7 @@
       <c r="C298" s="32"/>
       <c r="D298" s="51"/>
       <c r="E298" s="42"/>
-      <c r="F298" s="111"/>
+      <c r="F298" s="108"/>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="31" t="str" cm="1">
@@ -12178,7 +12184,7 @@
       <c r="C299" s="32"/>
       <c r="D299" s="51"/>
       <c r="E299" s="42"/>
-      <c r="F299" s="111"/>
+      <c r="F299" s="108"/>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="31" t="str" cm="1">
@@ -12188,7 +12194,7 @@
       <c r="C300" s="32"/>
       <c r="D300" s="51"/>
       <c r="E300" s="42"/>
-      <c r="F300" s="111"/>
+      <c r="F300" s="108"/>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="31" t="str" cm="1">
@@ -12198,7 +12204,7 @@
       <c r="C301" s="32"/>
       <c r="D301" s="51"/>
       <c r="E301" s="42"/>
-      <c r="F301" s="111"/>
+      <c r="F301" s="108"/>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="31" t="str" cm="1">
@@ -12208,7 +12214,7 @@
       <c r="C302" s="32"/>
       <c r="D302" s="51"/>
       <c r="E302" s="42"/>
-      <c r="F302" s="111"/>
+      <c r="F302" s="108"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="31" t="str" cm="1">
@@ -12218,7 +12224,7 @@
       <c r="C303" s="32"/>
       <c r="D303" s="51"/>
       <c r="E303" s="42"/>
-      <c r="F303" s="111"/>
+      <c r="F303" s="108"/>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="31" t="str" cm="1">
@@ -12228,7 +12234,7 @@
       <c r="C304" s="32"/>
       <c r="D304" s="51"/>
       <c r="E304" s="42"/>
-      <c r="F304" s="111"/>
+      <c r="F304" s="108"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B305" s="31" t="str" cm="1">
@@ -12238,7 +12244,7 @@
       <c r="C305" s="32"/>
       <c r="D305" s="51"/>
       <c r="E305" s="42"/>
-      <c r="F305" s="111"/>
+      <c r="F305" s="108"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B306" s="31" t="str" cm="1">
@@ -12248,7 +12254,7 @@
       <c r="C306" s="32"/>
       <c r="D306" s="51"/>
       <c r="E306" s="42"/>
-      <c r="F306" s="111"/>
+      <c r="F306" s="108"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B307" s="31" t="str" cm="1">
@@ -12258,7 +12264,7 @@
       <c r="C307" s="32"/>
       <c r="D307" s="51"/>
       <c r="E307" s="42"/>
-      <c r="F307" s="111"/>
+      <c r="F307" s="108"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B308" s="31" t="str" cm="1">
@@ -12268,7 +12274,7 @@
       <c r="C308" s="32"/>
       <c r="D308" s="51"/>
       <c r="E308" s="42"/>
-      <c r="F308" s="111"/>
+      <c r="F308" s="108"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B309" s="31" t="str" cm="1">
@@ -12278,7 +12284,7 @@
       <c r="C309" s="32"/>
       <c r="D309" s="51"/>
       <c r="E309" s="42"/>
-      <c r="F309" s="111"/>
+      <c r="F309" s="108"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B310" s="31" t="str" cm="1">
@@ -12288,7 +12294,7 @@
       <c r="C310" s="32"/>
       <c r="D310" s="51"/>
       <c r="E310" s="42"/>
-      <c r="F310" s="111"/>
+      <c r="F310" s="108"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B311" s="31" t="str" cm="1">
@@ -12298,7 +12304,7 @@
       <c r="C311" s="32"/>
       <c r="D311" s="51"/>
       <c r="E311" s="42"/>
-      <c r="F311" s="111"/>
+      <c r="F311" s="108"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B312" s="31" t="str" cm="1">
@@ -12308,7 +12314,7 @@
       <c r="C312" s="32"/>
       <c r="D312" s="51"/>
       <c r="E312" s="42"/>
-      <c r="F312" s="111"/>
+      <c r="F312" s="108"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B313" s="31" t="str" cm="1">
@@ -12318,7 +12324,7 @@
       <c r="C313" s="32"/>
       <c r="D313" s="51"/>
       <c r="E313" s="42"/>
-      <c r="F313" s="111"/>
+      <c r="F313" s="108"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B314" s="31" t="str" cm="1">
@@ -12328,7 +12334,7 @@
       <c r="C314" s="32"/>
       <c r="D314" s="51"/>
       <c r="E314" s="42"/>
-      <c r="F314" s="111"/>
+      <c r="F314" s="108"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B315" s="31" t="str" cm="1">
@@ -12338,7 +12344,7 @@
       <c r="C315" s="32"/>
       <c r="D315" s="51"/>
       <c r="E315" s="42"/>
-      <c r="F315" s="112"/>
+      <c r="F315" s="109"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B316" s="31" t="str" cm="1">
@@ -12348,7 +12354,7 @@
       <c r="C316" s="32"/>
       <c r="D316" s="51"/>
       <c r="E316" s="42"/>
-      <c r="F316" s="111"/>
+      <c r="F316" s="108"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B317" s="31" t="str" cm="1">
@@ -12358,7 +12364,7 @@
       <c r="C317" s="32"/>
       <c r="D317" s="51"/>
       <c r="E317" s="42"/>
-      <c r="F317" s="111"/>
+      <c r="F317" s="108"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B318" s="31" t="str" cm="1">
@@ -12368,10 +12374,10 @@
       <c r="C318" s="32"/>
       <c r="D318" s="51"/>
       <c r="E318" s="42"/>
-      <c r="F318" s="111"/>
+      <c r="F318" s="108"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="117" t="s">
+      <c r="A319" s="114" t="s">
         <v>61</v>
       </c>
       <c r="B319" s="50">
@@ -12390,7 +12396,7 @@
         <f>COUNTIF(E19:E318, "")</f>
         <v>300</v>
       </c>
-      <c r="F319" s="116" t="s">
+      <c r="F319" s="113" t="s">
         <v>61</v>
       </c>
     </row>
@@ -12399,7 +12405,7 @@
       <c r="C320" s="30"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="111"/>
+      <c r="F320" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12498,41 +12504,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127" t="s">
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="125"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -12570,7 +12576,7 @@
     </row>
     <row r="5" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="16"/>
@@ -12597,7 +12603,7 @@
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="106" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="16"/>
@@ -12624,20 +12630,20 @@
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="110"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="71"/>
       <c r="D7" s="69"/>
       <c r="E7" s="70"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
       <c r="K7" s="61"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
       <c r="P7" s="61"/>
       <c r="Q7" s="59"/>
     </row>
@@ -12680,9 +12686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12702,119 +12706,119 @@
     <col min="20" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="96" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="130" t="s">
+    <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="Q1" s="97"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="129" t="str">
+      <c r="D2" s="136" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v/>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
       <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="128" t="str" cm="1">
+      <c r="N2" s="135" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$6,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;" &amp; 'Test Run Log'!$B$5:$B$6)), COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;"&amp;'Test Run Log'!$B$5:$B$6),0))</f>
         <v>R2</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="Q2" s="98"/>
+      <c r="O2" s="135"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="128" t="str">
+      <c r="D3" s="135" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v/>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
       <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="128" t="str">
+      <c r="N3" s="135" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v/>
       </c>
-      <c r="O3" s="128"/>
-      <c r="Q3" s="98"/>
+      <c r="O3" s="135"/>
+      <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
+      <c r="B4" s="91"/>
       <c r="K4" s="30"/>
-      <c r="L4" s="95"/>
+      <c r="L4" s="92"/>
       <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="129">
-        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$6,9)</f>
+      <c r="N4" s="136">
+        <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="129"/>
-      <c r="Q4" s="98"/>
+      <c r="O4" s="136"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
+      <c r="B5" s="91"/>
       <c r="K5" s="30"/>
-      <c r="L5" s="95"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="129">
-        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$P$6,14)</f>
+      <c r="N5" s="136">
+        <f>SUM(K14:M14)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="129"/>
-      <c r="Q5" s="98"/>
+      <c r="O5" s="136"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="131" t="str">
+      <c r="B7" s="130" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="133"/>
-      <c r="J7" s="131" t="str">
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="132"/>
+      <c r="J7" s="130" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="133"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="132"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -12895,30 +12899,30 @@
     </row>
     <row r="13" spans="2:17" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B13" s="81"/>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="102" t="s">
+      <c r="G13" s="99" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="82"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="102" t="s">
         <v>20</v>
       </c>
       <c r="N13" s="86"/>
@@ -12926,44 +12930,44 @@
       <c r="P13" s="74"/>
     </row>
     <row r="14" spans="2:17" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="str">
+      <c r="B14" s="103" t="str">
         <f>$N$2</f>
         <v>R2</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$6,5)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$6,6)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$6,7)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$6,8)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$6,9)</f>
         <v>0</v>
       </c>
       <c r="H14" s="82"/>
-      <c r="J14" s="106" t="str">
+      <c r="J14" s="103" t="str">
         <f>$N$2</f>
         <v>R2</v>
       </c>
-      <c r="K14" s="107">
+      <c r="K14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$6,11)+VLOOKUP($N$2,'Test Run Log'!$B$5:$O$6,12)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="107">
+      <c r="L14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$6,13)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="107">
+      <c r="M14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$6,14)</f>
         <v>0</v>
       </c>
@@ -12991,49 +12995,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="131" t="str">
+      <c r="B17" s="130" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
-      <c r="J17" s="131" t="str">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
+      <c r="J17" s="130" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="133"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="132"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="131" t="str">
+      <c r="B29" s="130" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="133"/>
-      <c r="J29" s="131" t="str">
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="132"/>
+      <c r="J29" s="130" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="133"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="132"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -13166,254 +13170,254 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="133"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="132"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="135" t="s">
+      <c r="C43" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="135"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="134"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
-      <c r="L44" s="137"/>
-      <c r="M44" s="137"/>
-      <c r="N44" s="137"/>
-      <c r="O44" s="138"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="129"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="137"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="138"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="128"/>
+      <c r="O45" s="129"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="137"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="138"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="129"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="137"/>
-      <c r="L47" s="137"/>
-      <c r="M47" s="137"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="138"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="128"/>
+      <c r="O47" s="129"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="137"/>
-      <c r="M48" s="137"/>
-      <c r="N48" s="137"/>
-      <c r="O48" s="138"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="129"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="133"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="132"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="134" t="s">
+      <c r="C51" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="134"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="133"/>
+      <c r="O51" s="133"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="90"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="137"/>
-      <c r="M52" s="137"/>
-      <c r="N52" s="137"/>
-      <c r="O52" s="138"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="129"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="90"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="137"/>
-      <c r="M53" s="137"/>
-      <c r="N53" s="137"/>
-      <c r="O53" s="138"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="129"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="90"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="137"/>
-      <c r="L54" s="137"/>
-      <c r="M54" s="137"/>
-      <c r="N54" s="137"/>
-      <c r="O54" s="138"/>
+      <c r="B54" s="118"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="129"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="137"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="137"/>
-      <c r="L55" s="137"/>
-      <c r="M55" s="137"/>
-      <c r="N55" s="137"/>
-      <c r="O55" s="138"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="129"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="137"/>
-      <c r="L56" s="137"/>
-      <c r="M56" s="137"/>
-      <c r="N56" s="137"/>
-      <c r="O56" s="138"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="129"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -13422,130 +13426,130 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="131" t="s">
+      <c r="B58" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="133"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="132"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="134" t="s">
+      <c r="C59" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="133"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="133"/>
+      <c r="O59" s="133"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="90"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137"/>
-      <c r="L60" s="137"/>
-      <c r="M60" s="137"/>
-      <c r="N60" s="137"/>
-      <c r="O60" s="138"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="128"/>
+      <c r="M60" s="128"/>
+      <c r="N60" s="128"/>
+      <c r="O60" s="129"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="90"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="137"/>
-      <c r="L61" s="137"/>
-      <c r="M61" s="137"/>
-      <c r="N61" s="137"/>
-      <c r="O61" s="138"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="128"/>
+      <c r="M61" s="128"/>
+      <c r="N61" s="128"/>
+      <c r="O61" s="129"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="90"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
-      <c r="L62" s="137"/>
-      <c r="M62" s="137"/>
-      <c r="N62" s="137"/>
-      <c r="O62" s="138"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="128"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="128"/>
+      <c r="M62" s="128"/>
+      <c r="N62" s="128"/>
+      <c r="O62" s="129"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="137"/>
-      <c r="K63" s="137"/>
-      <c r="L63" s="137"/>
-      <c r="M63" s="137"/>
-      <c r="N63" s="137"/>
-      <c r="O63" s="138"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="128"/>
+      <c r="J63" s="128"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="128"/>
+      <c r="M63" s="128"/>
+      <c r="N63" s="128"/>
+      <c r="O63" s="129"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="137"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="137"/>
-      <c r="L64" s="137"/>
-      <c r="M64" s="137"/>
-      <c r="N64" s="137"/>
-      <c r="O64" s="138"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="128"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="128"/>
+      <c r="O64" s="129"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13603,17 +13607,13 @@
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B58:O58"/>
     <mergeCell ref="C59:O59"/>
     <mergeCell ref="B42:O42"/>
@@ -13630,13 +13630,17 @@
     <mergeCell ref="C54:O54"/>
     <mergeCell ref="C55:O55"/>
     <mergeCell ref="C56:O56"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13649,7 +13653,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13676,7 +13680,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="139" t="s">
+      <c r="E2" s="138" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="12"/>
@@ -13686,7 +13690,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="139"/>
+      <c r="E3" s="138"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -13726,103 +13730,103 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="142"/>
+      <c r="E8" s="141"/>
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="142"/>
+      <c r="E9" s="141"/>
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13853,12 +13857,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13976,15 +13977,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14006,16 +14017,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/download/my_test_case_manager.xlsx
+++ b/download/my_test_case_manager.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BF958-7F39-4309-A959-4DEBD817BFFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54898714-D0E9-4B70-8D95-E9B310880FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>F</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Total Defects:</t>
   </si>
   <si>
-    <t>If you like this software, then please visit our GitHub site and subscribe to our YouTube channel.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -291,20 +288,22 @@
     <t>▪</t>
   </si>
   <si>
-    <t xml:space="preserve"> V5 Bld 2021.04.01</t>
+    <t xml:space="preserve"> v5.01.44289</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0\ \h"/>
     <numFmt numFmtId="165" formatCode="0\ \m"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,8 +536,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00E266"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,11 +1050,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1288,11 +1308,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1317,6 +1335,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1384,11 +1423,9 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1460,6 +1497,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF008E40"/>
       <color rgb="FF00E266"/>
       <color rgb="FF6DFFAF"/>
       <color rgb="FFFFFFE7"/>
@@ -1469,7 +1507,6 @@
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8624,6 +8661,194 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112644</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024E30EF-A590-4389-A97A-83E528099CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="112644" y="2531167"/>
+          <a:ext cx="927772" cy="947530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514844</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2948939</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle with Corners Rounded 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5FA1A4-4914-47A7-83A1-E7FFD4E9AD7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223504" y="2495715"/>
+          <a:ext cx="2959875" cy="529425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63856"/>
+            <a:gd name="adj2" fmla="val 35582"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Please visit and subscribe to my</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> YouTube channel "www.DataResearchLabs.com"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="400" b="1">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8971,10 +9196,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="120"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9039,17 +9264,17 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="112" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="20" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="93.33203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="110" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" style="119" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="2.88671875" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="20" bestFit="1" customWidth="1"/>
@@ -9064,7 +9289,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="108"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -9077,14 +9302,14 @@
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="121" t="s">
+      <c r="F2" s="111"/>
+      <c r="G2" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="130"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9092,7 +9317,7 @@
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
-      <c r="F3" s="108"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -9105,7 +9330,7 @@
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
-      <c r="F4" s="108"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="45" t="s">
         <v>17</v>
       </c>
@@ -9124,7 +9349,7 @@
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="108"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="44" t="s">
         <v>10</v>
       </c>
@@ -9147,7 +9372,7 @@
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="108"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="44" t="s">
         <v>6</v>
       </c>
@@ -9170,7 +9395,7 @@
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
-      <c r="F7" s="108"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="44" t="s">
         <v>5</v>
       </c>
@@ -9193,12 +9418,12 @@
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="108"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" s="66">
         <f t="shared" si="0"/>
@@ -9212,8 +9437,8 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="F9" s="108"/>
+      <c r="A9" s="112"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="68" t="s">
         <v>4</v>
       </c>
@@ -9236,7 +9461,7 @@
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="108"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="43" t="s">
         <v>35</v>
       </c>
@@ -9256,7 +9481,7 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="108"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="4"/>
       <c r="H11" s="19"/>
       <c r="I11" s="28">
@@ -9275,7 +9500,7 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="108"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -9288,7 +9513,7 @@
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="108"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="53" t="str">
         <f>IF(COUNTIF(G14:G16, "") &lt;&gt; 3, "VALIDATION ERROR!", "")</f>
         <v/>
@@ -9304,7 +9529,7 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="108"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="52" t="str">
         <f>IF($C$319&lt;&gt;$E$319,"REJ-01: " &amp; $C$319&amp;" [Exec Tm] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9320,7 +9545,7 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
-      <c r="F15" s="108"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="52" t="str">
         <f>IF($D$319&lt;&gt;$E$319,"REJ-02: " &amp; $D$319&amp;" [Status] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9336,7 +9561,7 @@
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
-      <c r="F16" s="108"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="52"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
@@ -9345,17 +9570,17 @@
       <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="121" t="s">
+      <c r="A17" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="113" t="s">
-        <v>61</v>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="111" t="s">
+        <v>60</v>
       </c>
       <c r="G17" s="64"/>
     </row>
@@ -9372,7 +9597,7 @@
       <c r="E18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="108"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9383,7 +9608,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="51"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="109"/>
+      <c r="F19" s="108"/>
       <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -9394,7 +9619,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="51"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="109"/>
+      <c r="F20" s="108"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="str" cm="1">
@@ -9404,7 +9629,7 @@
       <c r="C21" s="32"/>
       <c r="D21" s="51"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="109"/>
+      <c r="F21" s="108"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="str" cm="1">
@@ -9414,7 +9639,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="51"/>
       <c r="E22" s="42"/>
-      <c r="F22" s="109"/>
+      <c r="F22" s="108"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="str" cm="1">
@@ -9424,7 +9649,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="51"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="109"/>
+      <c r="F23" s="108"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="str" cm="1">
@@ -9434,7 +9659,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="51"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="108"/>
+      <c r="F24" s="111"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="str" cm="1">
@@ -9444,7 +9669,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="51"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="108"/>
+      <c r="F25" s="111"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="str" cm="1">
@@ -9454,7 +9679,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="51"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="108"/>
+      <c r="F26" s="111"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="str" cm="1">
@@ -9464,7 +9689,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="51"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="108"/>
+      <c r="F27" s="111"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="str" cm="1">
@@ -9474,7 +9699,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="51"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="108"/>
+      <c r="F28" s="111"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="str" cm="1">
@@ -9484,7 +9709,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="51"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="108"/>
+      <c r="F29" s="111"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="str" cm="1">
@@ -9494,7 +9719,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="51"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="108"/>
+      <c r="F30" s="111"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="str" cm="1">
@@ -9504,7 +9729,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="51"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="108"/>
+      <c r="F31" s="111"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="str" cm="1">
@@ -9514,7 +9739,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="51"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="108"/>
+      <c r="F32" s="111"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="str" cm="1">
@@ -9524,7 +9749,7 @@
       <c r="C33" s="32"/>
       <c r="D33" s="51"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="108"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="str" cm="1">
@@ -9534,7 +9759,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="51"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="108"/>
+      <c r="F34" s="111"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="str" cm="1">
@@ -9544,7 +9769,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="51"/>
       <c r="E35" s="42"/>
-      <c r="F35" s="108"/>
+      <c r="F35" s="111"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="str" cm="1">
@@ -9554,7 +9779,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="51"/>
       <c r="E36" s="42"/>
-      <c r="F36" s="109"/>
+      <c r="F36" s="108"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="str" cm="1">
@@ -9564,7 +9789,7 @@
       <c r="C37" s="32"/>
       <c r="D37" s="51"/>
       <c r="E37" s="42"/>
-      <c r="F37" s="108"/>
+      <c r="F37" s="111"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="31" t="str" cm="1">
@@ -9574,7 +9799,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="51"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="108"/>
+      <c r="F38" s="111"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="str" cm="1">
@@ -9584,7 +9809,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="51"/>
       <c r="E39" s="42"/>
-      <c r="F39" s="108"/>
+      <c r="F39" s="111"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="str" cm="1">
@@ -9594,7 +9819,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="51"/>
       <c r="E40" s="42"/>
-      <c r="F40" s="108"/>
+      <c r="F40" s="111"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="str" cm="1">
@@ -9604,7 +9829,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="51"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="108"/>
+      <c r="F41" s="111"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="str" cm="1">
@@ -9614,7 +9839,7 @@
       <c r="C42" s="32"/>
       <c r="D42" s="51"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="108"/>
+      <c r="F42" s="111"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="str" cm="1">
@@ -9624,7 +9849,7 @@
       <c r="C43" s="32"/>
       <c r="D43" s="51"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="108"/>
+      <c r="F43" s="111"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="str" cm="1">
@@ -9634,7 +9859,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="51"/>
       <c r="E44" s="42"/>
-      <c r="F44" s="108"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="31" t="str" cm="1">
@@ -9644,7 +9869,7 @@
       <c r="C45" s="32"/>
       <c r="D45" s="51"/>
       <c r="E45" s="42"/>
-      <c r="F45" s="108"/>
+      <c r="F45" s="111"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="31" t="str" cm="1">
@@ -9654,7 +9879,7 @@
       <c r="C46" s="32"/>
       <c r="D46" s="51"/>
       <c r="E46" s="42"/>
-      <c r="F46" s="108"/>
+      <c r="F46" s="111"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="str" cm="1">
@@ -9664,7 +9889,7 @@
       <c r="C47" s="32"/>
       <c r="D47" s="51"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="108"/>
+      <c r="F47" s="111"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="str" cm="1">
@@ -9674,7 +9899,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="51"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="108"/>
+      <c r="F48" s="111"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="31" t="str" cm="1">
@@ -9684,7 +9909,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="51"/>
       <c r="E49" s="42"/>
-      <c r="F49" s="108"/>
+      <c r="F49" s="111"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="str" cm="1">
@@ -9694,7 +9919,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="51"/>
       <c r="E50" s="42"/>
-      <c r="F50" s="108"/>
+      <c r="F50" s="111"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="str" cm="1">
@@ -9704,7 +9929,7 @@
       <c r="C51" s="32"/>
       <c r="D51" s="51"/>
       <c r="E51" s="42"/>
-      <c r="F51" s="108"/>
+      <c r="F51" s="111"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="str" cm="1">
@@ -9714,7 +9939,7 @@
       <c r="C52" s="32"/>
       <c r="D52" s="51"/>
       <c r="E52" s="42"/>
-      <c r="F52" s="108"/>
+      <c r="F52" s="111"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="31" t="str" cm="1">
@@ -9724,7 +9949,7 @@
       <c r="C53" s="32"/>
       <c r="D53" s="51"/>
       <c r="E53" s="42"/>
-      <c r="F53" s="108"/>
+      <c r="F53" s="111"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="31" t="str" cm="1">
@@ -9734,7 +9959,7 @@
       <c r="C54" s="32"/>
       <c r="D54" s="51"/>
       <c r="E54" s="42"/>
-      <c r="F54" s="108"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="str" cm="1">
@@ -9744,7 +9969,7 @@
       <c r="C55" s="32"/>
       <c r="D55" s="51"/>
       <c r="E55" s="42"/>
-      <c r="F55" s="108"/>
+      <c r="F55" s="111"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="str" cm="1">
@@ -9754,7 +9979,7 @@
       <c r="C56" s="32"/>
       <c r="D56" s="51"/>
       <c r="E56" s="42"/>
-      <c r="F56" s="108"/>
+      <c r="F56" s="111"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="str" cm="1">
@@ -9764,7 +9989,7 @@
       <c r="C57" s="32"/>
       <c r="D57" s="51"/>
       <c r="E57" s="42"/>
-      <c r="F57" s="108"/>
+      <c r="F57" s="111"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="31" t="str" cm="1">
@@ -9774,7 +9999,7 @@
       <c r="C58" s="32"/>
       <c r="D58" s="51"/>
       <c r="E58" s="42"/>
-      <c r="F58" s="108"/>
+      <c r="F58" s="111"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="31" t="str" cm="1">
@@ -9784,7 +10009,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="51"/>
       <c r="E59" s="42"/>
-      <c r="F59" s="108"/>
+      <c r="F59" s="111"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="31" t="str" cm="1">
@@ -9794,7 +10019,7 @@
       <c r="C60" s="32"/>
       <c r="D60" s="51"/>
       <c r="E60" s="42"/>
-      <c r="F60" s="108"/>
+      <c r="F60" s="111"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="31" t="str" cm="1">
@@ -9804,7 +10029,7 @@
       <c r="C61" s="32"/>
       <c r="D61" s="51"/>
       <c r="E61" s="42"/>
-      <c r="F61" s="108"/>
+      <c r="F61" s="111"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="31" t="str" cm="1">
@@ -9814,7 +10039,7 @@
       <c r="C62" s="32"/>
       <c r="D62" s="51"/>
       <c r="E62" s="42"/>
-      <c r="F62" s="108"/>
+      <c r="F62" s="111"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="31" t="str" cm="1">
@@ -9824,7 +10049,7 @@
       <c r="C63" s="32"/>
       <c r="D63" s="51"/>
       <c r="E63" s="42"/>
-      <c r="F63" s="108"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="31" t="str" cm="1">
@@ -9834,7 +10059,7 @@
       <c r="C64" s="32"/>
       <c r="D64" s="51"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="108"/>
+      <c r="F64" s="111"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="str" cm="1">
@@ -9844,7 +10069,7 @@
       <c r="C65" s="32"/>
       <c r="D65" s="51"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="108"/>
+      <c r="F65" s="111"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="31" t="str" cm="1">
@@ -9854,7 +10079,7 @@
       <c r="C66" s="32"/>
       <c r="D66" s="51"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="108"/>
+      <c r="F66" s="111"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="31" t="str" cm="1">
@@ -9864,7 +10089,7 @@
       <c r="C67" s="32"/>
       <c r="D67" s="51"/>
       <c r="E67" s="42"/>
-      <c r="F67" s="108"/>
+      <c r="F67" s="111"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="31" t="str" cm="1">
@@ -9874,7 +10099,7 @@
       <c r="C68" s="32"/>
       <c r="D68" s="51"/>
       <c r="E68" s="42"/>
-      <c r="F68" s="108"/>
+      <c r="F68" s="111"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="31" t="str" cm="1">
@@ -9884,7 +10109,7 @@
       <c r="C69" s="32"/>
       <c r="D69" s="51"/>
       <c r="E69" s="42"/>
-      <c r="F69" s="108"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="31" t="str" cm="1">
@@ -9894,7 +10119,7 @@
       <c r="C70" s="32"/>
       <c r="D70" s="51"/>
       <c r="E70" s="42"/>
-      <c r="F70" s="108"/>
+      <c r="F70" s="111"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="31" t="str" cm="1">
@@ -9904,7 +10129,7 @@
       <c r="C71" s="32"/>
       <c r="D71" s="51"/>
       <c r="E71" s="42"/>
-      <c r="F71" s="108"/>
+      <c r="F71" s="111"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="31" t="str" cm="1">
@@ -9914,7 +10139,7 @@
       <c r="C72" s="32"/>
       <c r="D72" s="51"/>
       <c r="E72" s="42"/>
-      <c r="F72" s="108"/>
+      <c r="F72" s="111"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="31" t="str" cm="1">
@@ -9924,7 +10149,7 @@
       <c r="C73" s="32"/>
       <c r="D73" s="51"/>
       <c r="E73" s="42"/>
-      <c r="F73" s="108"/>
+      <c r="F73" s="111"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="31" t="str" cm="1">
@@ -9934,7 +10159,7 @@
       <c r="C74" s="32"/>
       <c r="D74" s="51"/>
       <c r="E74" s="42"/>
-      <c r="F74" s="108"/>
+      <c r="F74" s="111"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="31" t="str" cm="1">
@@ -9944,7 +10169,7 @@
       <c r="C75" s="32"/>
       <c r="D75" s="51"/>
       <c r="E75" s="42"/>
-      <c r="F75" s="108"/>
+      <c r="F75" s="111"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="31" t="str" cm="1">
@@ -9954,7 +10179,7 @@
       <c r="C76" s="32"/>
       <c r="D76" s="51"/>
       <c r="E76" s="42"/>
-      <c r="F76" s="108"/>
+      <c r="F76" s="111"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="31" t="str" cm="1">
@@ -9964,7 +10189,7 @@
       <c r="C77" s="32"/>
       <c r="D77" s="51"/>
       <c r="E77" s="42"/>
-      <c r="F77" s="108"/>
+      <c r="F77" s="111"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="31" t="str" cm="1">
@@ -9974,7 +10199,7 @@
       <c r="C78" s="32"/>
       <c r="D78" s="51"/>
       <c r="E78" s="42"/>
-      <c r="F78" s="108"/>
+      <c r="F78" s="111"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="31" t="str" cm="1">
@@ -9984,7 +10209,7 @@
       <c r="C79" s="32"/>
       <c r="D79" s="51"/>
       <c r="E79" s="42"/>
-      <c r="F79" s="108"/>
+      <c r="F79" s="111"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="31" t="str" cm="1">
@@ -9994,7 +10219,7 @@
       <c r="C80" s="32"/>
       <c r="D80" s="51"/>
       <c r="E80" s="42"/>
-      <c r="F80" s="108"/>
+      <c r="F80" s="111"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="31" t="str" cm="1">
@@ -10004,7 +10229,7 @@
       <c r="C81" s="32"/>
       <c r="D81" s="51"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="108"/>
+      <c r="F81" s="111"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="31" t="str" cm="1">
@@ -10014,7 +10239,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="51"/>
       <c r="E82" s="42"/>
-      <c r="F82" s="108"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="31" t="str" cm="1">
@@ -10024,7 +10249,7 @@
       <c r="C83" s="32"/>
       <c r="D83" s="51"/>
       <c r="E83" s="42"/>
-      <c r="F83" s="108"/>
+      <c r="F83" s="111"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="31" t="str" cm="1">
@@ -10034,7 +10259,7 @@
       <c r="C84" s="32"/>
       <c r="D84" s="51"/>
       <c r="E84" s="42"/>
-      <c r="F84" s="108"/>
+      <c r="F84" s="111"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="31" t="str" cm="1">
@@ -10044,7 +10269,7 @@
       <c r="C85" s="32"/>
       <c r="D85" s="51"/>
       <c r="E85" s="42"/>
-      <c r="F85" s="108"/>
+      <c r="F85" s="111"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="31" t="str" cm="1">
@@ -10054,7 +10279,7 @@
       <c r="C86" s="32"/>
       <c r="D86" s="51"/>
       <c r="E86" s="42"/>
-      <c r="F86" s="108"/>
+      <c r="F86" s="111"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="31" t="str" cm="1">
@@ -10064,7 +10289,7 @@
       <c r="C87" s="32"/>
       <c r="D87" s="51"/>
       <c r="E87" s="42"/>
-      <c r="F87" s="108"/>
+      <c r="F87" s="111"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="31" t="str" cm="1">
@@ -10074,7 +10299,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="51"/>
       <c r="E88" s="42"/>
-      <c r="F88" s="108"/>
+      <c r="F88" s="111"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="31" t="str" cm="1">
@@ -10084,7 +10309,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="51"/>
       <c r="E89" s="42"/>
-      <c r="F89" s="108"/>
+      <c r="F89" s="111"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="31" t="str" cm="1">
@@ -10094,7 +10319,7 @@
       <c r="C90" s="32"/>
       <c r="D90" s="51"/>
       <c r="E90" s="42"/>
-      <c r="F90" s="108"/>
+      <c r="F90" s="111"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="str" cm="1">
@@ -10104,7 +10329,7 @@
       <c r="C91" s="32"/>
       <c r="D91" s="51"/>
       <c r="E91" s="42"/>
-      <c r="F91" s="108"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="31" t="str" cm="1">
@@ -10114,7 +10339,7 @@
       <c r="C92" s="32"/>
       <c r="D92" s="51"/>
       <c r="E92" s="42"/>
-      <c r="F92" s="108"/>
+      <c r="F92" s="111"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="31" t="str" cm="1">
@@ -10124,7 +10349,7 @@
       <c r="C93" s="32"/>
       <c r="D93" s="51"/>
       <c r="E93" s="42"/>
-      <c r="F93" s="108"/>
+      <c r="F93" s="111"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="str" cm="1">
@@ -10134,7 +10359,7 @@
       <c r="C94" s="32"/>
       <c r="D94" s="51"/>
       <c r="E94" s="42"/>
-      <c r="F94" s="108"/>
+      <c r="F94" s="111"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="str" cm="1">
@@ -10144,7 +10369,7 @@
       <c r="C95" s="32"/>
       <c r="D95" s="51"/>
       <c r="E95" s="42"/>
-      <c r="F95" s="108"/>
+      <c r="F95" s="111"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="31" t="str" cm="1">
@@ -10154,7 +10379,7 @@
       <c r="C96" s="32"/>
       <c r="D96" s="51"/>
       <c r="E96" s="42"/>
-      <c r="F96" s="108"/>
+      <c r="F96" s="111"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="str" cm="1">
@@ -10164,7 +10389,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="51"/>
       <c r="E97" s="42"/>
-      <c r="F97" s="108"/>
+      <c r="F97" s="111"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="31" t="str" cm="1">
@@ -10174,7 +10399,7 @@
       <c r="C98" s="32"/>
       <c r="D98" s="51"/>
       <c r="E98" s="42"/>
-      <c r="F98" s="108"/>
+      <c r="F98" s="111"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="31" t="str" cm="1">
@@ -10184,7 +10409,7 @@
       <c r="C99" s="32"/>
       <c r="D99" s="51"/>
       <c r="E99" s="42"/>
-      <c r="F99" s="108"/>
+      <c r="F99" s="111"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="31" t="str" cm="1">
@@ -10194,7 +10419,7 @@
       <c r="C100" s="32"/>
       <c r="D100" s="51"/>
       <c r="E100" s="42"/>
-      <c r="F100" s="108"/>
+      <c r="F100" s="111"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="31" t="str" cm="1">
@@ -10204,7 +10429,7 @@
       <c r="C101" s="32"/>
       <c r="D101" s="51"/>
       <c r="E101" s="42"/>
-      <c r="F101" s="108"/>
+      <c r="F101" s="111"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="31" t="str" cm="1">
@@ -10214,7 +10439,7 @@
       <c r="C102" s="32"/>
       <c r="D102" s="51"/>
       <c r="E102" s="42"/>
-      <c r="F102" s="108"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="31" t="str" cm="1">
@@ -10224,7 +10449,7 @@
       <c r="C103" s="32"/>
       <c r="D103" s="51"/>
       <c r="E103" s="42"/>
-      <c r="F103" s="108"/>
+      <c r="F103" s="111"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="31" t="str" cm="1">
@@ -10234,7 +10459,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="51"/>
       <c r="E104" s="42"/>
-      <c r="F104" s="108"/>
+      <c r="F104" s="111"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="31" t="str" cm="1">
@@ -10244,7 +10469,7 @@
       <c r="C105" s="32"/>
       <c r="D105" s="51"/>
       <c r="E105" s="42"/>
-      <c r="F105" s="108"/>
+      <c r="F105" s="111"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="31" t="str" cm="1">
@@ -10254,7 +10479,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="51"/>
       <c r="E106" s="42"/>
-      <c r="F106" s="108"/>
+      <c r="F106" s="111"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="31" t="str" cm="1">
@@ -10264,7 +10489,7 @@
       <c r="C107" s="32"/>
       <c r="D107" s="51"/>
       <c r="E107" s="42"/>
-      <c r="F107" s="108"/>
+      <c r="F107" s="111"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="31" t="str" cm="1">
@@ -10274,7 +10499,7 @@
       <c r="C108" s="32"/>
       <c r="D108" s="51"/>
       <c r="E108" s="42"/>
-      <c r="F108" s="108"/>
+      <c r="F108" s="111"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="31" t="str" cm="1">
@@ -10284,7 +10509,7 @@
       <c r="C109" s="32"/>
       <c r="D109" s="51"/>
       <c r="E109" s="42"/>
-      <c r="F109" s="108"/>
+      <c r="F109" s="111"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="31" t="str" cm="1">
@@ -10294,7 +10519,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="51"/>
       <c r="E110" s="42"/>
-      <c r="F110" s="108"/>
+      <c r="F110" s="111"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="31" t="str" cm="1">
@@ -10304,7 +10529,7 @@
       <c r="C111" s="32"/>
       <c r="D111" s="51"/>
       <c r="E111" s="42"/>
-      <c r="F111" s="108"/>
+      <c r="F111" s="111"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="31" t="str" cm="1">
@@ -10314,7 +10539,7 @@
       <c r="C112" s="32"/>
       <c r="D112" s="51"/>
       <c r="E112" s="42"/>
-      <c r="F112" s="108"/>
+      <c r="F112" s="111"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="31" t="str" cm="1">
@@ -10324,7 +10549,7 @@
       <c r="C113" s="32"/>
       <c r="D113" s="51"/>
       <c r="E113" s="42"/>
-      <c r="F113" s="108"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="31" t="str" cm="1">
@@ -10334,7 +10559,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="51"/>
       <c r="E114" s="42"/>
-      <c r="F114" s="108"/>
+      <c r="F114" s="111"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="31" t="str" cm="1">
@@ -10344,7 +10569,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="51"/>
       <c r="E115" s="42"/>
-      <c r="F115" s="108"/>
+      <c r="F115" s="111"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="31" t="str" cm="1">
@@ -10354,7 +10579,7 @@
       <c r="C116" s="32"/>
       <c r="D116" s="51"/>
       <c r="E116" s="42"/>
-      <c r="F116" s="108"/>
+      <c r="F116" s="111"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="31" t="str" cm="1">
@@ -10364,7 +10589,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="51"/>
       <c r="E117" s="42"/>
-      <c r="F117" s="108"/>
+      <c r="F117" s="111"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="31" t="str" cm="1">
@@ -10374,7 +10599,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="51"/>
       <c r="E118" s="42"/>
-      <c r="F118" s="108"/>
+      <c r="F118" s="111"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="31" t="str" cm="1">
@@ -10384,7 +10609,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="51"/>
       <c r="E119" s="42"/>
-      <c r="F119" s="108"/>
+      <c r="F119" s="111"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="31" t="str" cm="1">
@@ -10394,7 +10619,7 @@
       <c r="C120" s="32"/>
       <c r="D120" s="51"/>
       <c r="E120" s="42"/>
-      <c r="F120" s="108"/>
+      <c r="F120" s="111"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="31" t="str" cm="1">
@@ -10404,7 +10629,7 @@
       <c r="C121" s="32"/>
       <c r="D121" s="51"/>
       <c r="E121" s="42"/>
-      <c r="F121" s="108"/>
+      <c r="F121" s="111"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="31" t="str" cm="1">
@@ -10414,7 +10639,7 @@
       <c r="C122" s="32"/>
       <c r="D122" s="51"/>
       <c r="E122" s="42"/>
-      <c r="F122" s="108"/>
+      <c r="F122" s="111"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="31" t="str" cm="1">
@@ -10424,7 +10649,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="51"/>
       <c r="E123" s="42"/>
-      <c r="F123" s="108"/>
+      <c r="F123" s="111"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="31" t="str" cm="1">
@@ -10434,7 +10659,7 @@
       <c r="C124" s="32"/>
       <c r="D124" s="51"/>
       <c r="E124" s="42"/>
-      <c r="F124" s="108"/>
+      <c r="F124" s="111"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="31" t="str" cm="1">
@@ -10444,7 +10669,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="51"/>
       <c r="E125" s="42"/>
-      <c r="F125" s="108"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="31" t="str" cm="1">
@@ -10454,7 +10679,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="51"/>
       <c r="E126" s="42"/>
-      <c r="F126" s="108"/>
+      <c r="F126" s="111"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="31" t="str" cm="1">
@@ -10464,7 +10689,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="51"/>
       <c r="E127" s="42"/>
-      <c r="F127" s="108"/>
+      <c r="F127" s="111"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="31" t="str" cm="1">
@@ -10474,7 +10699,7 @@
       <c r="C128" s="32"/>
       <c r="D128" s="51"/>
       <c r="E128" s="42"/>
-      <c r="F128" s="108"/>
+      <c r="F128" s="111"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="31" t="str" cm="1">
@@ -10484,7 +10709,7 @@
       <c r="C129" s="32"/>
       <c r="D129" s="51"/>
       <c r="E129" s="42"/>
-      <c r="F129" s="108"/>
+      <c r="F129" s="111"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="31" t="str" cm="1">
@@ -10494,7 +10719,7 @@
       <c r="C130" s="32"/>
       <c r="D130" s="51"/>
       <c r="E130" s="42"/>
-      <c r="F130" s="108"/>
+      <c r="F130" s="111"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="31" t="str" cm="1">
@@ -10504,7 +10729,7 @@
       <c r="C131" s="32"/>
       <c r="D131" s="51"/>
       <c r="E131" s="42"/>
-      <c r="F131" s="108"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="31" t="str" cm="1">
@@ -10514,7 +10739,7 @@
       <c r="C132" s="32"/>
       <c r="D132" s="51"/>
       <c r="E132" s="42"/>
-      <c r="F132" s="108"/>
+      <c r="F132" s="111"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="31" t="str" cm="1">
@@ -10524,7 +10749,7 @@
       <c r="C133" s="32"/>
       <c r="D133" s="51"/>
       <c r="E133" s="42"/>
-      <c r="F133" s="108"/>
+      <c r="F133" s="111"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="31" t="str" cm="1">
@@ -10534,7 +10759,7 @@
       <c r="C134" s="32"/>
       <c r="D134" s="51"/>
       <c r="E134" s="42"/>
-      <c r="F134" s="108"/>
+      <c r="F134" s="111"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="31" t="str" cm="1">
@@ -10544,7 +10769,7 @@
       <c r="C135" s="32"/>
       <c r="D135" s="51"/>
       <c r="E135" s="42"/>
-      <c r="F135" s="108"/>
+      <c r="F135" s="111"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="31" t="str" cm="1">
@@ -10554,7 +10779,7 @@
       <c r="C136" s="32"/>
       <c r="D136" s="51"/>
       <c r="E136" s="42"/>
-      <c r="F136" s="108"/>
+      <c r="F136" s="111"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="31" t="str" cm="1">
@@ -10564,7 +10789,7 @@
       <c r="C137" s="32"/>
       <c r="D137" s="51"/>
       <c r="E137" s="42"/>
-      <c r="F137" s="108"/>
+      <c r="F137" s="111"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="31" t="str" cm="1">
@@ -10574,7 +10799,7 @@
       <c r="C138" s="32"/>
       <c r="D138" s="51"/>
       <c r="E138" s="42"/>
-      <c r="F138" s="108"/>
+      <c r="F138" s="111"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="31" t="str" cm="1">
@@ -10584,7 +10809,7 @@
       <c r="C139" s="32"/>
       <c r="D139" s="51"/>
       <c r="E139" s="42"/>
-      <c r="F139" s="108"/>
+      <c r="F139" s="111"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="31" t="str" cm="1">
@@ -10594,7 +10819,7 @@
       <c r="C140" s="32"/>
       <c r="D140" s="51"/>
       <c r="E140" s="42"/>
-      <c r="F140" s="108"/>
+      <c r="F140" s="111"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="31" t="str" cm="1">
@@ -10604,7 +10829,7 @@
       <c r="C141" s="32"/>
       <c r="D141" s="51"/>
       <c r="E141" s="42"/>
-      <c r="F141" s="108"/>
+      <c r="F141" s="111"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="31" t="str" cm="1">
@@ -10614,7 +10839,7 @@
       <c r="C142" s="32"/>
       <c r="D142" s="51"/>
       <c r="E142" s="42"/>
-      <c r="F142" s="108"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="31" t="str" cm="1">
@@ -10624,7 +10849,7 @@
       <c r="C143" s="32"/>
       <c r="D143" s="51"/>
       <c r="E143" s="42"/>
-      <c r="F143" s="108"/>
+      <c r="F143" s="111"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="31" t="str" cm="1">
@@ -10634,7 +10859,7 @@
       <c r="C144" s="32"/>
       <c r="D144" s="51"/>
       <c r="E144" s="42"/>
-      <c r="F144" s="108"/>
+      <c r="F144" s="111"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="31" t="str" cm="1">
@@ -10644,7 +10869,7 @@
       <c r="C145" s="32"/>
       <c r="D145" s="51"/>
       <c r="E145" s="42"/>
-      <c r="F145" s="108"/>
+      <c r="F145" s="111"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="31" t="str" cm="1">
@@ -10654,7 +10879,7 @@
       <c r="C146" s="32"/>
       <c r="D146" s="51"/>
       <c r="E146" s="42"/>
-      <c r="F146" s="108"/>
+      <c r="F146" s="111"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="31" t="str" cm="1">
@@ -10664,7 +10889,7 @@
       <c r="C147" s="32"/>
       <c r="D147" s="51"/>
       <c r="E147" s="42"/>
-      <c r="F147" s="108"/>
+      <c r="F147" s="111"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="31" t="str" cm="1">
@@ -10674,7 +10899,7 @@
       <c r="C148" s="32"/>
       <c r="D148" s="51"/>
       <c r="E148" s="42"/>
-      <c r="F148" s="108"/>
+      <c r="F148" s="111"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="31" t="str" cm="1">
@@ -10684,7 +10909,7 @@
       <c r="C149" s="32"/>
       <c r="D149" s="51"/>
       <c r="E149" s="42"/>
-      <c r="F149" s="108"/>
+      <c r="F149" s="111"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="31" t="str" cm="1">
@@ -10694,7 +10919,7 @@
       <c r="C150" s="32"/>
       <c r="D150" s="51"/>
       <c r="E150" s="42"/>
-      <c r="F150" s="108"/>
+      <c r="F150" s="111"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="31" t="str" cm="1">
@@ -10704,7 +10929,7 @@
       <c r="C151" s="32"/>
       <c r="D151" s="51"/>
       <c r="E151" s="42"/>
-      <c r="F151" s="108"/>
+      <c r="F151" s="111"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="31" t="str" cm="1">
@@ -10714,7 +10939,7 @@
       <c r="C152" s="32"/>
       <c r="D152" s="51"/>
       <c r="E152" s="42"/>
-      <c r="F152" s="108"/>
+      <c r="F152" s="111"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="31" t="str" cm="1">
@@ -10724,7 +10949,7 @@
       <c r="C153" s="32"/>
       <c r="D153" s="51"/>
       <c r="E153" s="42"/>
-      <c r="F153" s="108"/>
+      <c r="F153" s="111"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="31" t="str" cm="1">
@@ -10734,7 +10959,7 @@
       <c r="C154" s="32"/>
       <c r="D154" s="51"/>
       <c r="E154" s="42"/>
-      <c r="F154" s="108"/>
+      <c r="F154" s="111"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="31" t="str" cm="1">
@@ -10744,7 +10969,7 @@
       <c r="C155" s="32"/>
       <c r="D155" s="51"/>
       <c r="E155" s="42"/>
-      <c r="F155" s="108"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="31" t="str" cm="1">
@@ -10754,7 +10979,7 @@
       <c r="C156" s="32"/>
       <c r="D156" s="51"/>
       <c r="E156" s="42"/>
-      <c r="F156" s="108"/>
+      <c r="F156" s="111"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="31" t="str" cm="1">
@@ -10764,7 +10989,7 @@
       <c r="C157" s="32"/>
       <c r="D157" s="51"/>
       <c r="E157" s="42"/>
-      <c r="F157" s="108"/>
+      <c r="F157" s="111"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="31" t="str" cm="1">
@@ -10774,7 +10999,7 @@
       <c r="C158" s="32"/>
       <c r="D158" s="51"/>
       <c r="E158" s="42"/>
-      <c r="F158" s="108"/>
+      <c r="F158" s="111"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="31" t="str" cm="1">
@@ -10784,7 +11009,7 @@
       <c r="C159" s="32"/>
       <c r="D159" s="51"/>
       <c r="E159" s="42"/>
-      <c r="F159" s="108"/>
+      <c r="F159" s="111"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="31" t="str" cm="1">
@@ -10794,7 +11019,7 @@
       <c r="C160" s="32"/>
       <c r="D160" s="51"/>
       <c r="E160" s="42"/>
-      <c r="F160" s="108"/>
+      <c r="F160" s="111"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="31" t="str" cm="1">
@@ -10804,7 +11029,7 @@
       <c r="C161" s="32"/>
       <c r="D161" s="51"/>
       <c r="E161" s="42"/>
-      <c r="F161" s="108"/>
+      <c r="F161" s="111"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="31" t="str" cm="1">
@@ -10814,7 +11039,7 @@
       <c r="C162" s="32"/>
       <c r="D162" s="51"/>
       <c r="E162" s="42"/>
-      <c r="F162" s="108"/>
+      <c r="F162" s="111"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="31" t="str" cm="1">
@@ -10824,7 +11049,7 @@
       <c r="C163" s="32"/>
       <c r="D163" s="51"/>
       <c r="E163" s="42"/>
-      <c r="F163" s="108"/>
+      <c r="F163" s="111"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="31" t="str" cm="1">
@@ -10834,7 +11059,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="51"/>
       <c r="E164" s="42"/>
-      <c r="F164" s="108"/>
+      <c r="F164" s="111"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="31" t="str" cm="1">
@@ -10844,7 +11069,7 @@
       <c r="C165" s="32"/>
       <c r="D165" s="51"/>
       <c r="E165" s="42"/>
-      <c r="F165" s="108"/>
+      <c r="F165" s="111"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="31" t="str" cm="1">
@@ -10854,7 +11079,7 @@
       <c r="C166" s="32"/>
       <c r="D166" s="51"/>
       <c r="E166" s="42"/>
-      <c r="F166" s="108"/>
+      <c r="F166" s="111"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="31" t="str" cm="1">
@@ -10864,7 +11089,7 @@
       <c r="C167" s="32"/>
       <c r="D167" s="51"/>
       <c r="E167" s="42"/>
-      <c r="F167" s="108"/>
+      <c r="F167" s="111"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="31" t="str" cm="1">
@@ -10874,7 +11099,7 @@
       <c r="C168" s="32"/>
       <c r="D168" s="51"/>
       <c r="E168" s="42"/>
-      <c r="F168" s="108"/>
+      <c r="F168" s="111"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="31" t="str" cm="1">
@@ -10884,7 +11109,7 @@
       <c r="C169" s="32"/>
       <c r="D169" s="51"/>
       <c r="E169" s="42"/>
-      <c r="F169" s="108"/>
+      <c r="F169" s="111"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="31" t="str" cm="1">
@@ -10894,7 +11119,7 @@
       <c r="C170" s="32"/>
       <c r="D170" s="51"/>
       <c r="E170" s="42"/>
-      <c r="F170" s="108"/>
+      <c r="F170" s="111"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="31" t="str" cm="1">
@@ -10904,7 +11129,7 @@
       <c r="C171" s="32"/>
       <c r="D171" s="51"/>
       <c r="E171" s="42"/>
-      <c r="F171" s="108"/>
+      <c r="F171" s="111"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="31" t="str" cm="1">
@@ -10914,7 +11139,7 @@
       <c r="C172" s="32"/>
       <c r="D172" s="51"/>
       <c r="E172" s="42"/>
-      <c r="F172" s="108"/>
+      <c r="F172" s="111"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="31" t="str" cm="1">
@@ -10924,7 +11149,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="51"/>
       <c r="E173" s="42"/>
-      <c r="F173" s="108"/>
+      <c r="F173" s="111"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="31" t="str" cm="1">
@@ -10934,7 +11159,7 @@
       <c r="C174" s="32"/>
       <c r="D174" s="51"/>
       <c r="E174" s="42"/>
-      <c r="F174" s="108"/>
+      <c r="F174" s="111"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="31" t="str" cm="1">
@@ -10944,7 +11169,7 @@
       <c r="C175" s="32"/>
       <c r="D175" s="51"/>
       <c r="E175" s="42"/>
-      <c r="F175" s="108"/>
+      <c r="F175" s="111"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="31" t="str" cm="1">
@@ -10954,7 +11179,7 @@
       <c r="C176" s="32"/>
       <c r="D176" s="51"/>
       <c r="E176" s="42"/>
-      <c r="F176" s="108"/>
+      <c r="F176" s="111"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="31" t="str" cm="1">
@@ -10964,7 +11189,7 @@
       <c r="C177" s="32"/>
       <c r="D177" s="51"/>
       <c r="E177" s="42"/>
-      <c r="F177" s="108"/>
+      <c r="F177" s="111"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="31" t="str" cm="1">
@@ -10974,7 +11199,7 @@
       <c r="C178" s="32"/>
       <c r="D178" s="51"/>
       <c r="E178" s="42"/>
-      <c r="F178" s="108"/>
+      <c r="F178" s="111"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="31" t="str" cm="1">
@@ -10984,7 +11209,7 @@
       <c r="C179" s="32"/>
       <c r="D179" s="51"/>
       <c r="E179" s="42"/>
-      <c r="F179" s="108"/>
+      <c r="F179" s="111"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="31" t="str" cm="1">
@@ -10994,7 +11219,7 @@
       <c r="C180" s="32"/>
       <c r="D180" s="51"/>
       <c r="E180" s="42"/>
-      <c r="F180" s="108"/>
+      <c r="F180" s="111"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="31" t="str" cm="1">
@@ -11004,7 +11229,7 @@
       <c r="C181" s="32"/>
       <c r="D181" s="51"/>
       <c r="E181" s="42"/>
-      <c r="F181" s="108"/>
+      <c r="F181" s="111"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="31" t="str" cm="1">
@@ -11014,7 +11239,7 @@
       <c r="C182" s="32"/>
       <c r="D182" s="51"/>
       <c r="E182" s="42"/>
-      <c r="F182" s="108"/>
+      <c r="F182" s="111"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="31" t="str" cm="1">
@@ -11024,7 +11249,7 @@
       <c r="C183" s="32"/>
       <c r="D183" s="51"/>
       <c r="E183" s="42"/>
-      <c r="F183" s="108"/>
+      <c r="F183" s="111"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="31" t="str" cm="1">
@@ -11034,7 +11259,7 @@
       <c r="C184" s="32"/>
       <c r="D184" s="51"/>
       <c r="E184" s="42"/>
-      <c r="F184" s="108"/>
+      <c r="F184" s="111"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="31" t="str" cm="1">
@@ -11044,7 +11269,7 @@
       <c r="C185" s="32"/>
       <c r="D185" s="51"/>
       <c r="E185" s="42"/>
-      <c r="F185" s="108"/>
+      <c r="F185" s="111"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="31" t="str" cm="1">
@@ -11054,7 +11279,7 @@
       <c r="C186" s="32"/>
       <c r="D186" s="51"/>
       <c r="E186" s="42"/>
-      <c r="F186" s="108"/>
+      <c r="F186" s="111"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="31" t="str" cm="1">
@@ -11064,7 +11289,7 @@
       <c r="C187" s="32"/>
       <c r="D187" s="51"/>
       <c r="E187" s="42"/>
-      <c r="F187" s="108"/>
+      <c r="F187" s="111"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="31" t="str" cm="1">
@@ -11074,7 +11299,7 @@
       <c r="C188" s="32"/>
       <c r="D188" s="51"/>
       <c r="E188" s="42"/>
-      <c r="F188" s="108"/>
+      <c r="F188" s="111"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="31" t="str" cm="1">
@@ -11084,7 +11309,7 @@
       <c r="C189" s="32"/>
       <c r="D189" s="51"/>
       <c r="E189" s="42"/>
-      <c r="F189" s="108"/>
+      <c r="F189" s="111"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="31" t="str" cm="1">
@@ -11094,7 +11319,7 @@
       <c r="C190" s="32"/>
       <c r="D190" s="51"/>
       <c r="E190" s="42"/>
-      <c r="F190" s="108"/>
+      <c r="F190" s="111"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="31" t="str" cm="1">
@@ -11104,7 +11329,7 @@
       <c r="C191" s="32"/>
       <c r="D191" s="51"/>
       <c r="E191" s="42"/>
-      <c r="F191" s="108"/>
+      <c r="F191" s="111"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="31" t="str" cm="1">
@@ -11114,7 +11339,7 @@
       <c r="C192" s="32"/>
       <c r="D192" s="51"/>
       <c r="E192" s="42"/>
-      <c r="F192" s="108"/>
+      <c r="F192" s="111"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="31" t="str" cm="1">
@@ -11124,7 +11349,7 @@
       <c r="C193" s="32"/>
       <c r="D193" s="51"/>
       <c r="E193" s="42"/>
-      <c r="F193" s="108"/>
+      <c r="F193" s="111"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="31" t="str" cm="1">
@@ -11134,7 +11359,7 @@
       <c r="C194" s="32"/>
       <c r="D194" s="51"/>
       <c r="E194" s="42"/>
-      <c r="F194" s="108"/>
+      <c r="F194" s="111"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="31" t="str" cm="1">
@@ -11144,7 +11369,7 @@
       <c r="C195" s="32"/>
       <c r="D195" s="51"/>
       <c r="E195" s="42"/>
-      <c r="F195" s="108"/>
+      <c r="F195" s="111"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="31" t="str" cm="1">
@@ -11154,7 +11379,7 @@
       <c r="C196" s="32"/>
       <c r="D196" s="51"/>
       <c r="E196" s="42"/>
-      <c r="F196" s="108"/>
+      <c r="F196" s="111"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="31" t="str" cm="1">
@@ -11164,7 +11389,7 @@
       <c r="C197" s="32"/>
       <c r="D197" s="51"/>
       <c r="E197" s="42"/>
-      <c r="F197" s="108"/>
+      <c r="F197" s="111"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="31" t="str" cm="1">
@@ -11174,7 +11399,7 @@
       <c r="C198" s="32"/>
       <c r="D198" s="51"/>
       <c r="E198" s="42"/>
-      <c r="F198" s="108"/>
+      <c r="F198" s="111"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="31" t="str" cm="1">
@@ -11184,7 +11409,7 @@
       <c r="C199" s="32"/>
       <c r="D199" s="51"/>
       <c r="E199" s="42"/>
-      <c r="F199" s="108"/>
+      <c r="F199" s="111"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="31" t="str" cm="1">
@@ -11194,7 +11419,7 @@
       <c r="C200" s="32"/>
       <c r="D200" s="51"/>
       <c r="E200" s="42"/>
-      <c r="F200" s="108"/>
+      <c r="F200" s="111"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="31" t="str" cm="1">
@@ -11204,7 +11429,7 @@
       <c r="C201" s="32"/>
       <c r="D201" s="51"/>
       <c r="E201" s="42"/>
-      <c r="F201" s="108"/>
+      <c r="F201" s="111"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="31" t="str" cm="1">
@@ -11214,7 +11439,7 @@
       <c r="C202" s="32"/>
       <c r="D202" s="51"/>
       <c r="E202" s="42"/>
-      <c r="F202" s="108"/>
+      <c r="F202" s="111"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="31" t="str" cm="1">
@@ -11224,7 +11449,7 @@
       <c r="C203" s="32"/>
       <c r="D203" s="51"/>
       <c r="E203" s="42"/>
-      <c r="F203" s="108"/>
+      <c r="F203" s="111"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="31" t="str" cm="1">
@@ -11234,7 +11459,7 @@
       <c r="C204" s="32"/>
       <c r="D204" s="51"/>
       <c r="E204" s="42"/>
-      <c r="F204" s="108"/>
+      <c r="F204" s="111"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="31" t="str" cm="1">
@@ -11244,7 +11469,7 @@
       <c r="C205" s="32"/>
       <c r="D205" s="51"/>
       <c r="E205" s="42"/>
-      <c r="F205" s="108"/>
+      <c r="F205" s="111"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="31" t="str" cm="1">
@@ -11254,7 +11479,7 @@
       <c r="C206" s="32"/>
       <c r="D206" s="51"/>
       <c r="E206" s="42"/>
-      <c r="F206" s="108"/>
+      <c r="F206" s="111"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="31" t="str" cm="1">
@@ -11264,7 +11489,7 @@
       <c r="C207" s="32"/>
       <c r="D207" s="51"/>
       <c r="E207" s="42"/>
-      <c r="F207" s="108"/>
+      <c r="F207" s="111"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="31" t="str" cm="1">
@@ -11274,7 +11499,7 @@
       <c r="C208" s="32"/>
       <c r="D208" s="51"/>
       <c r="E208" s="42"/>
-      <c r="F208" s="108"/>
+      <c r="F208" s="111"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="31" t="str" cm="1">
@@ -11284,7 +11509,7 @@
       <c r="C209" s="32"/>
       <c r="D209" s="51"/>
       <c r="E209" s="42"/>
-      <c r="F209" s="108"/>
+      <c r="F209" s="111"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="31" t="str" cm="1">
@@ -11294,7 +11519,7 @@
       <c r="C210" s="32"/>
       <c r="D210" s="51"/>
       <c r="E210" s="42"/>
-      <c r="F210" s="108"/>
+      <c r="F210" s="111"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="31" t="str" cm="1">
@@ -11304,7 +11529,7 @@
       <c r="C211" s="32"/>
       <c r="D211" s="51"/>
       <c r="E211" s="42"/>
-      <c r="F211" s="108"/>
+      <c r="F211" s="111"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="31" t="str" cm="1">
@@ -11314,7 +11539,7 @@
       <c r="C212" s="32"/>
       <c r="D212" s="51"/>
       <c r="E212" s="42"/>
-      <c r="F212" s="108"/>
+      <c r="F212" s="111"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="31" t="str" cm="1">
@@ -11324,7 +11549,7 @@
       <c r="C213" s="32"/>
       <c r="D213" s="51"/>
       <c r="E213" s="42"/>
-      <c r="F213" s="108"/>
+      <c r="F213" s="111"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="31" t="str" cm="1">
@@ -11334,7 +11559,7 @@
       <c r="C214" s="32"/>
       <c r="D214" s="51"/>
       <c r="E214" s="42"/>
-      <c r="F214" s="108"/>
+      <c r="F214" s="111"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="31" t="str" cm="1">
@@ -11344,7 +11569,7 @@
       <c r="C215" s="32"/>
       <c r="D215" s="51"/>
       <c r="E215" s="42"/>
-      <c r="F215" s="108"/>
+      <c r="F215" s="111"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="31" t="str" cm="1">
@@ -11354,7 +11579,7 @@
       <c r="C216" s="32"/>
       <c r="D216" s="51"/>
       <c r="E216" s="42"/>
-      <c r="F216" s="108"/>
+      <c r="F216" s="111"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="31" t="str" cm="1">
@@ -11364,7 +11589,7 @@
       <c r="C217" s="32"/>
       <c r="D217" s="51"/>
       <c r="E217" s="42"/>
-      <c r="F217" s="108"/>
+      <c r="F217" s="111"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="31" t="str" cm="1">
@@ -11374,7 +11599,7 @@
       <c r="C218" s="32"/>
       <c r="D218" s="51"/>
       <c r="E218" s="42"/>
-      <c r="F218" s="108"/>
+      <c r="F218" s="111"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="31" t="str" cm="1">
@@ -11384,7 +11609,7 @@
       <c r="C219" s="32"/>
       <c r="D219" s="51"/>
       <c r="E219" s="42"/>
-      <c r="F219" s="108"/>
+      <c r="F219" s="111"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="31" t="str" cm="1">
@@ -11394,7 +11619,7 @@
       <c r="C220" s="32"/>
       <c r="D220" s="51"/>
       <c r="E220" s="42"/>
-      <c r="F220" s="108"/>
+      <c r="F220" s="111"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="31" t="str" cm="1">
@@ -11404,7 +11629,7 @@
       <c r="C221" s="32"/>
       <c r="D221" s="51"/>
       <c r="E221" s="42"/>
-      <c r="F221" s="108"/>
+      <c r="F221" s="111"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="31" t="str" cm="1">
@@ -11414,7 +11639,7 @@
       <c r="C222" s="32"/>
       <c r="D222" s="51"/>
       <c r="E222" s="42"/>
-      <c r="F222" s="108"/>
+      <c r="F222" s="111"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="31" t="str" cm="1">
@@ -11424,7 +11649,7 @@
       <c r="C223" s="32"/>
       <c r="D223" s="51"/>
       <c r="E223" s="42"/>
-      <c r="F223" s="108"/>
+      <c r="F223" s="111"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="31" t="str" cm="1">
@@ -11434,7 +11659,7 @@
       <c r="C224" s="32"/>
       <c r="D224" s="51"/>
       <c r="E224" s="42"/>
-      <c r="F224" s="108"/>
+      <c r="F224" s="111"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="31" t="str" cm="1">
@@ -11444,7 +11669,7 @@
       <c r="C225" s="32"/>
       <c r="D225" s="51"/>
       <c r="E225" s="42"/>
-      <c r="F225" s="108"/>
+      <c r="F225" s="111"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="31" t="str" cm="1">
@@ -11454,7 +11679,7 @@
       <c r="C226" s="32"/>
       <c r="D226" s="51"/>
       <c r="E226" s="42"/>
-      <c r="F226" s="108"/>
+      <c r="F226" s="111"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="31" t="str" cm="1">
@@ -11464,7 +11689,7 @@
       <c r="C227" s="32"/>
       <c r="D227" s="51"/>
       <c r="E227" s="42"/>
-      <c r="F227" s="108"/>
+      <c r="F227" s="111"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="31" t="str" cm="1">
@@ -11474,7 +11699,7 @@
       <c r="C228" s="32"/>
       <c r="D228" s="51"/>
       <c r="E228" s="42"/>
-      <c r="F228" s="108"/>
+      <c r="F228" s="111"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="31" t="str" cm="1">
@@ -11484,7 +11709,7 @@
       <c r="C229" s="32"/>
       <c r="D229" s="51"/>
       <c r="E229" s="42"/>
-      <c r="F229" s="108"/>
+      <c r="F229" s="111"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="31" t="str" cm="1">
@@ -11494,7 +11719,7 @@
       <c r="C230" s="32"/>
       <c r="D230" s="51"/>
       <c r="E230" s="42"/>
-      <c r="F230" s="108"/>
+      <c r="F230" s="111"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="31" t="str" cm="1">
@@ -11504,7 +11729,7 @@
       <c r="C231" s="32"/>
       <c r="D231" s="51"/>
       <c r="E231" s="42"/>
-      <c r="F231" s="108"/>
+      <c r="F231" s="111"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="31" t="str" cm="1">
@@ -11514,7 +11739,7 @@
       <c r="C232" s="32"/>
       <c r="D232" s="51"/>
       <c r="E232" s="42"/>
-      <c r="F232" s="108"/>
+      <c r="F232" s="111"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="31" t="str" cm="1">
@@ -11524,7 +11749,7 @@
       <c r="C233" s="32"/>
       <c r="D233" s="51"/>
       <c r="E233" s="42"/>
-      <c r="F233" s="108"/>
+      <c r="F233" s="111"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="31" t="str" cm="1">
@@ -11534,7 +11759,7 @@
       <c r="C234" s="32"/>
       <c r="D234" s="51"/>
       <c r="E234" s="42"/>
-      <c r="F234" s="108"/>
+      <c r="F234" s="111"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="31" t="str" cm="1">
@@ -11544,7 +11769,7 @@
       <c r="C235" s="32"/>
       <c r="D235" s="51"/>
       <c r="E235" s="42"/>
-      <c r="F235" s="108"/>
+      <c r="F235" s="111"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="31" t="str" cm="1">
@@ -11554,7 +11779,7 @@
       <c r="C236" s="32"/>
       <c r="D236" s="51"/>
       <c r="E236" s="42"/>
-      <c r="F236" s="108"/>
+      <c r="F236" s="111"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="31" t="str" cm="1">
@@ -11564,7 +11789,7 @@
       <c r="C237" s="32"/>
       <c r="D237" s="51"/>
       <c r="E237" s="42"/>
-      <c r="F237" s="108"/>
+      <c r="F237" s="111"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="31" t="str" cm="1">
@@ -11574,7 +11799,7 @@
       <c r="C238" s="32"/>
       <c r="D238" s="51"/>
       <c r="E238" s="42"/>
-      <c r="F238" s="108"/>
+      <c r="F238" s="111"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="31" t="str" cm="1">
@@ -11584,7 +11809,7 @@
       <c r="C239" s="32"/>
       <c r="D239" s="51"/>
       <c r="E239" s="42"/>
-      <c r="F239" s="108"/>
+      <c r="F239" s="111"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="31" t="str" cm="1">
@@ -11594,7 +11819,7 @@
       <c r="C240" s="32"/>
       <c r="D240" s="51"/>
       <c r="E240" s="42"/>
-      <c r="F240" s="108"/>
+      <c r="F240" s="111"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="31" t="str" cm="1">
@@ -11604,7 +11829,7 @@
       <c r="C241" s="32"/>
       <c r="D241" s="51"/>
       <c r="E241" s="42"/>
-      <c r="F241" s="108"/>
+      <c r="F241" s="111"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="31" t="str" cm="1">
@@ -11614,7 +11839,7 @@
       <c r="C242" s="32"/>
       <c r="D242" s="51"/>
       <c r="E242" s="42"/>
-      <c r="F242" s="108"/>
+      <c r="F242" s="111"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="31" t="str" cm="1">
@@ -11624,7 +11849,7 @@
       <c r="C243" s="32"/>
       <c r="D243" s="51"/>
       <c r="E243" s="42"/>
-      <c r="F243" s="108"/>
+      <c r="F243" s="111"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="31" t="str" cm="1">
@@ -11634,7 +11859,7 @@
       <c r="C244" s="32"/>
       <c r="D244" s="51"/>
       <c r="E244" s="42"/>
-      <c r="F244" s="108"/>
+      <c r="F244" s="111"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="31" t="str" cm="1">
@@ -11644,7 +11869,7 @@
       <c r="C245" s="32"/>
       <c r="D245" s="51"/>
       <c r="E245" s="42"/>
-      <c r="F245" s="108"/>
+      <c r="F245" s="111"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="31" t="str" cm="1">
@@ -11654,7 +11879,7 @@
       <c r="C246" s="32"/>
       <c r="D246" s="51"/>
       <c r="E246" s="42"/>
-      <c r="F246" s="108"/>
+      <c r="F246" s="111"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="31" t="str" cm="1">
@@ -11664,7 +11889,7 @@
       <c r="C247" s="32"/>
       <c r="D247" s="51"/>
       <c r="E247" s="42"/>
-      <c r="F247" s="108"/>
+      <c r="F247" s="111"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="31" t="str" cm="1">
@@ -11674,7 +11899,7 @@
       <c r="C248" s="32"/>
       <c r="D248" s="51"/>
       <c r="E248" s="42"/>
-      <c r="F248" s="108"/>
+      <c r="F248" s="111"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="31" t="str" cm="1">
@@ -11684,7 +11909,7 @@
       <c r="C249" s="32"/>
       <c r="D249" s="51"/>
       <c r="E249" s="42"/>
-      <c r="F249" s="108"/>
+      <c r="F249" s="111"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="31" t="str" cm="1">
@@ -11694,7 +11919,7 @@
       <c r="C250" s="32"/>
       <c r="D250" s="51"/>
       <c r="E250" s="42"/>
-      <c r="F250" s="108"/>
+      <c r="F250" s="111"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="31" t="str" cm="1">
@@ -11704,7 +11929,7 @@
       <c r="C251" s="32"/>
       <c r="D251" s="51"/>
       <c r="E251" s="42"/>
-      <c r="F251" s="108"/>
+      <c r="F251" s="111"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="31" t="str" cm="1">
@@ -11714,7 +11939,7 @@
       <c r="C252" s="32"/>
       <c r="D252" s="51"/>
       <c r="E252" s="42"/>
-      <c r="F252" s="108"/>
+      <c r="F252" s="111"/>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="31" t="str" cm="1">
@@ -11724,7 +11949,7 @@
       <c r="C253" s="32"/>
       <c r="D253" s="51"/>
       <c r="E253" s="42"/>
-      <c r="F253" s="108"/>
+      <c r="F253" s="111"/>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="31" t="str" cm="1">
@@ -11734,7 +11959,7 @@
       <c r="C254" s="32"/>
       <c r="D254" s="51"/>
       <c r="E254" s="42"/>
-      <c r="F254" s="108"/>
+      <c r="F254" s="111"/>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="31" t="str" cm="1">
@@ -11744,7 +11969,7 @@
       <c r="C255" s="32"/>
       <c r="D255" s="51"/>
       <c r="E255" s="42"/>
-      <c r="F255" s="108"/>
+      <c r="F255" s="111"/>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="31" t="str" cm="1">
@@ -11754,7 +11979,7 @@
       <c r="C256" s="32"/>
       <c r="D256" s="51"/>
       <c r="E256" s="42"/>
-      <c r="F256" s="108"/>
+      <c r="F256" s="111"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="31" t="str" cm="1">
@@ -11764,7 +11989,7 @@
       <c r="C257" s="32"/>
       <c r="D257" s="51"/>
       <c r="E257" s="42"/>
-      <c r="F257" s="108"/>
+      <c r="F257" s="111"/>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="31" t="str" cm="1">
@@ -11774,7 +11999,7 @@
       <c r="C258" s="32"/>
       <c r="D258" s="51"/>
       <c r="E258" s="42"/>
-      <c r="F258" s="108"/>
+      <c r="F258" s="111"/>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="31" t="str" cm="1">
@@ -11784,7 +12009,7 @@
       <c r="C259" s="32"/>
       <c r="D259" s="51"/>
       <c r="E259" s="42"/>
-      <c r="F259" s="108"/>
+      <c r="F259" s="111"/>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="31" t="str" cm="1">
@@ -11794,7 +12019,7 @@
       <c r="C260" s="32"/>
       <c r="D260" s="51"/>
       <c r="E260" s="42"/>
-      <c r="F260" s="108"/>
+      <c r="F260" s="111"/>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="31" t="str" cm="1">
@@ -11804,7 +12029,7 @@
       <c r="C261" s="32"/>
       <c r="D261" s="51"/>
       <c r="E261" s="42"/>
-      <c r="F261" s="108"/>
+      <c r="F261" s="111"/>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="31" t="str" cm="1">
@@ -11814,7 +12039,7 @@
       <c r="C262" s="32"/>
       <c r="D262" s="51"/>
       <c r="E262" s="42"/>
-      <c r="F262" s="108"/>
+      <c r="F262" s="111"/>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="31" t="str" cm="1">
@@ -11824,7 +12049,7 @@
       <c r="C263" s="32"/>
       <c r="D263" s="51"/>
       <c r="E263" s="42"/>
-      <c r="F263" s="108"/>
+      <c r="F263" s="111"/>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="31" t="str" cm="1">
@@ -11834,7 +12059,7 @@
       <c r="C264" s="32"/>
       <c r="D264" s="51"/>
       <c r="E264" s="42"/>
-      <c r="F264" s="108"/>
+      <c r="F264" s="111"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="31" t="str" cm="1">
@@ -11844,7 +12069,7 @@
       <c r="C265" s="32"/>
       <c r="D265" s="51"/>
       <c r="E265" s="42"/>
-      <c r="F265" s="108"/>
+      <c r="F265" s="111"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="31" t="str" cm="1">
@@ -11854,7 +12079,7 @@
       <c r="C266" s="32"/>
       <c r="D266" s="51"/>
       <c r="E266" s="42"/>
-      <c r="F266" s="108"/>
+      <c r="F266" s="111"/>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="31" t="str" cm="1">
@@ -11864,7 +12089,7 @@
       <c r="C267" s="32"/>
       <c r="D267" s="51"/>
       <c r="E267" s="42"/>
-      <c r="F267" s="108"/>
+      <c r="F267" s="111"/>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="31" t="str" cm="1">
@@ -11874,7 +12099,7 @@
       <c r="C268" s="32"/>
       <c r="D268" s="51"/>
       <c r="E268" s="42"/>
-      <c r="F268" s="108"/>
+      <c r="F268" s="111"/>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="31" t="str" cm="1">
@@ -11884,7 +12109,7 @@
       <c r="C269" s="32"/>
       <c r="D269" s="51"/>
       <c r="E269" s="42"/>
-      <c r="F269" s="108"/>
+      <c r="F269" s="111"/>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="31" t="str" cm="1">
@@ -11894,7 +12119,7 @@
       <c r="C270" s="32"/>
       <c r="D270" s="51"/>
       <c r="E270" s="42"/>
-      <c r="F270" s="108"/>
+      <c r="F270" s="111"/>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="31" t="str" cm="1">
@@ -11904,7 +12129,7 @@
       <c r="C271" s="32"/>
       <c r="D271" s="51"/>
       <c r="E271" s="42"/>
-      <c r="F271" s="108"/>
+      <c r="F271" s="111"/>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="31" t="str" cm="1">
@@ -11914,7 +12139,7 @@
       <c r="C272" s="32"/>
       <c r="D272" s="51"/>
       <c r="E272" s="42"/>
-      <c r="F272" s="108"/>
+      <c r="F272" s="111"/>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="31" t="str" cm="1">
@@ -11924,7 +12149,7 @@
       <c r="C273" s="32"/>
       <c r="D273" s="51"/>
       <c r="E273" s="42"/>
-      <c r="F273" s="108"/>
+      <c r="F273" s="111"/>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="31" t="str" cm="1">
@@ -11934,7 +12159,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="51"/>
       <c r="E274" s="42"/>
-      <c r="F274" s="108"/>
+      <c r="F274" s="111"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="31" t="str" cm="1">
@@ -11944,7 +12169,7 @@
       <c r="C275" s="32"/>
       <c r="D275" s="51"/>
       <c r="E275" s="42"/>
-      <c r="F275" s="108"/>
+      <c r="F275" s="111"/>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="31" t="str" cm="1">
@@ -11954,7 +12179,7 @@
       <c r="C276" s="32"/>
       <c r="D276" s="51"/>
       <c r="E276" s="42"/>
-      <c r="F276" s="108"/>
+      <c r="F276" s="111"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="31" t="str" cm="1">
@@ -11964,7 +12189,7 @@
       <c r="C277" s="32"/>
       <c r="D277" s="51"/>
       <c r="E277" s="42"/>
-      <c r="F277" s="108"/>
+      <c r="F277" s="111"/>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="31" t="str" cm="1">
@@ -11974,7 +12199,7 @@
       <c r="C278" s="32"/>
       <c r="D278" s="51"/>
       <c r="E278" s="42"/>
-      <c r="F278" s="108"/>
+      <c r="F278" s="111"/>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="31" t="str" cm="1">
@@ -11984,7 +12209,7 @@
       <c r="C279" s="32"/>
       <c r="D279" s="51"/>
       <c r="E279" s="42"/>
-      <c r="F279" s="108"/>
+      <c r="F279" s="111"/>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="31" t="str" cm="1">
@@ -11994,7 +12219,7 @@
       <c r="C280" s="32"/>
       <c r="D280" s="51"/>
       <c r="E280" s="42"/>
-      <c r="F280" s="108"/>
+      <c r="F280" s="111"/>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="31" t="str" cm="1">
@@ -12004,7 +12229,7 @@
       <c r="C281" s="32"/>
       <c r="D281" s="51"/>
       <c r="E281" s="42"/>
-      <c r="F281" s="108"/>
+      <c r="F281" s="111"/>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="31" t="str" cm="1">
@@ -12014,7 +12239,7 @@
       <c r="C282" s="32"/>
       <c r="D282" s="51"/>
       <c r="E282" s="42"/>
-      <c r="F282" s="108"/>
+      <c r="F282" s="111"/>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="31" t="str" cm="1">
@@ -12024,7 +12249,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="51"/>
       <c r="E283" s="42"/>
-      <c r="F283" s="108"/>
+      <c r="F283" s="111"/>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="31" t="str" cm="1">
@@ -12034,7 +12259,7 @@
       <c r="C284" s="32"/>
       <c r="D284" s="51"/>
       <c r="E284" s="42"/>
-      <c r="F284" s="108"/>
+      <c r="F284" s="111"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="31" t="str" cm="1">
@@ -12044,7 +12269,7 @@
       <c r="C285" s="32"/>
       <c r="D285" s="51"/>
       <c r="E285" s="42"/>
-      <c r="F285" s="108"/>
+      <c r="F285" s="111"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="31" t="str" cm="1">
@@ -12054,7 +12279,7 @@
       <c r="C286" s="32"/>
       <c r="D286" s="51"/>
       <c r="E286" s="42"/>
-      <c r="F286" s="108"/>
+      <c r="F286" s="111"/>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="31" t="str" cm="1">
@@ -12064,7 +12289,7 @@
       <c r="C287" s="32"/>
       <c r="D287" s="51"/>
       <c r="E287" s="42"/>
-      <c r="F287" s="108"/>
+      <c r="F287" s="111"/>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="31" t="str" cm="1">
@@ -12074,7 +12299,7 @@
       <c r="C288" s="32"/>
       <c r="D288" s="51"/>
       <c r="E288" s="42"/>
-      <c r="F288" s="108"/>
+      <c r="F288" s="111"/>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="31" t="str" cm="1">
@@ -12084,7 +12309,7 @@
       <c r="C289" s="32"/>
       <c r="D289" s="51"/>
       <c r="E289" s="42"/>
-      <c r="F289" s="108"/>
+      <c r="F289" s="111"/>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="31" t="str" cm="1">
@@ -12094,7 +12319,7 @@
       <c r="C290" s="32"/>
       <c r="D290" s="51"/>
       <c r="E290" s="42"/>
-      <c r="F290" s="108"/>
+      <c r="F290" s="111"/>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="31" t="str" cm="1">
@@ -12104,7 +12329,7 @@
       <c r="C291" s="32"/>
       <c r="D291" s="51"/>
       <c r="E291" s="42"/>
-      <c r="F291" s="108"/>
+      <c r="F291" s="111"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="31" t="str" cm="1">
@@ -12114,7 +12339,7 @@
       <c r="C292" s="32"/>
       <c r="D292" s="51"/>
       <c r="E292" s="42"/>
-      <c r="F292" s="108"/>
+      <c r="F292" s="111"/>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="31" t="str" cm="1">
@@ -12124,7 +12349,7 @@
       <c r="C293" s="32"/>
       <c r="D293" s="51"/>
       <c r="E293" s="42"/>
-      <c r="F293" s="108"/>
+      <c r="F293" s="111"/>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="31" t="str" cm="1">
@@ -12134,7 +12359,7 @@
       <c r="C294" s="32"/>
       <c r="D294" s="51"/>
       <c r="E294" s="42"/>
-      <c r="F294" s="108"/>
+      <c r="F294" s="111"/>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="31" t="str" cm="1">
@@ -12144,7 +12369,7 @@
       <c r="C295" s="32"/>
       <c r="D295" s="51"/>
       <c r="E295" s="42"/>
-      <c r="F295" s="108"/>
+      <c r="F295" s="111"/>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="31" t="str" cm="1">
@@ -12154,7 +12379,7 @@
       <c r="C296" s="32"/>
       <c r="D296" s="51"/>
       <c r="E296" s="42"/>
-      <c r="F296" s="108"/>
+      <c r="F296" s="111"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="31" t="str" cm="1">
@@ -12164,7 +12389,7 @@
       <c r="C297" s="32"/>
       <c r="D297" s="51"/>
       <c r="E297" s="42"/>
-      <c r="F297" s="108"/>
+      <c r="F297" s="111"/>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="31" t="str" cm="1">
@@ -12174,7 +12399,7 @@
       <c r="C298" s="32"/>
       <c r="D298" s="51"/>
       <c r="E298" s="42"/>
-      <c r="F298" s="108"/>
+      <c r="F298" s="111"/>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="31" t="str" cm="1">
@@ -12184,7 +12409,7 @@
       <c r="C299" s="32"/>
       <c r="D299" s="51"/>
       <c r="E299" s="42"/>
-      <c r="F299" s="108"/>
+      <c r="F299" s="111"/>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="31" t="str" cm="1">
@@ -12194,7 +12419,7 @@
       <c r="C300" s="32"/>
       <c r="D300" s="51"/>
       <c r="E300" s="42"/>
-      <c r="F300" s="108"/>
+      <c r="F300" s="111"/>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="31" t="str" cm="1">
@@ -12204,7 +12429,7 @@
       <c r="C301" s="32"/>
       <c r="D301" s="51"/>
       <c r="E301" s="42"/>
-      <c r="F301" s="108"/>
+      <c r="F301" s="111"/>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="31" t="str" cm="1">
@@ -12214,7 +12439,7 @@
       <c r="C302" s="32"/>
       <c r="D302" s="51"/>
       <c r="E302" s="42"/>
-      <c r="F302" s="108"/>
+      <c r="F302" s="111"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="31" t="str" cm="1">
@@ -12224,7 +12449,7 @@
       <c r="C303" s="32"/>
       <c r="D303" s="51"/>
       <c r="E303" s="42"/>
-      <c r="F303" s="108"/>
+      <c r="F303" s="111"/>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="31" t="str" cm="1">
@@ -12234,7 +12459,7 @@
       <c r="C304" s="32"/>
       <c r="D304" s="51"/>
       <c r="E304" s="42"/>
-      <c r="F304" s="108"/>
+      <c r="F304" s="111"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B305" s="31" t="str" cm="1">
@@ -12244,7 +12469,7 @@
       <c r="C305" s="32"/>
       <c r="D305" s="51"/>
       <c r="E305" s="42"/>
-      <c r="F305" s="108"/>
+      <c r="F305" s="111"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B306" s="31" t="str" cm="1">
@@ -12254,7 +12479,7 @@
       <c r="C306" s="32"/>
       <c r="D306" s="51"/>
       <c r="E306" s="42"/>
-      <c r="F306" s="108"/>
+      <c r="F306" s="111"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B307" s="31" t="str" cm="1">
@@ -12264,7 +12489,7 @@
       <c r="C307" s="32"/>
       <c r="D307" s="51"/>
       <c r="E307" s="42"/>
-      <c r="F307" s="108"/>
+      <c r="F307" s="111"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B308" s="31" t="str" cm="1">
@@ -12274,7 +12499,7 @@
       <c r="C308" s="32"/>
       <c r="D308" s="51"/>
       <c r="E308" s="42"/>
-      <c r="F308" s="108"/>
+      <c r="F308" s="111"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B309" s="31" t="str" cm="1">
@@ -12284,7 +12509,7 @@
       <c r="C309" s="32"/>
       <c r="D309" s="51"/>
       <c r="E309" s="42"/>
-      <c r="F309" s="108"/>
+      <c r="F309" s="111"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B310" s="31" t="str" cm="1">
@@ -12294,7 +12519,7 @@
       <c r="C310" s="32"/>
       <c r="D310" s="51"/>
       <c r="E310" s="42"/>
-      <c r="F310" s="108"/>
+      <c r="F310" s="111"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B311" s="31" t="str" cm="1">
@@ -12304,7 +12529,7 @@
       <c r="C311" s="32"/>
       <c r="D311" s="51"/>
       <c r="E311" s="42"/>
-      <c r="F311" s="108"/>
+      <c r="F311" s="111"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B312" s="31" t="str" cm="1">
@@ -12314,7 +12539,7 @@
       <c r="C312" s="32"/>
       <c r="D312" s="51"/>
       <c r="E312" s="42"/>
-      <c r="F312" s="108"/>
+      <c r="F312" s="111"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B313" s="31" t="str" cm="1">
@@ -12324,7 +12549,7 @@
       <c r="C313" s="32"/>
       <c r="D313" s="51"/>
       <c r="E313" s="42"/>
-      <c r="F313" s="108"/>
+      <c r="F313" s="111"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B314" s="31" t="str" cm="1">
@@ -12334,7 +12559,7 @@
       <c r="C314" s="32"/>
       <c r="D314" s="51"/>
       <c r="E314" s="42"/>
-      <c r="F314" s="108"/>
+      <c r="F314" s="111"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B315" s="31" t="str" cm="1">
@@ -12344,7 +12569,7 @@
       <c r="C315" s="32"/>
       <c r="D315" s="51"/>
       <c r="E315" s="42"/>
-      <c r="F315" s="109"/>
+      <c r="F315" s="108"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B316" s="31" t="str" cm="1">
@@ -12354,7 +12579,7 @@
       <c r="C316" s="32"/>
       <c r="D316" s="51"/>
       <c r="E316" s="42"/>
-      <c r="F316" s="108"/>
+      <c r="F316" s="111"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B317" s="31" t="str" cm="1">
@@ -12364,7 +12589,7 @@
       <c r="C317" s="32"/>
       <c r="D317" s="51"/>
       <c r="E317" s="42"/>
-      <c r="F317" s="108"/>
+      <c r="F317" s="111"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B318" s="31" t="str" cm="1">
@@ -12374,11 +12599,11 @@
       <c r="C318" s="32"/>
       <c r="D318" s="51"/>
       <c r="E318" s="42"/>
-      <c r="F318" s="108"/>
+      <c r="F318" s="111"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="114" t="s">
-        <v>61</v>
+      <c r="A319" s="112" t="s">
+        <v>60</v>
       </c>
       <c r="B319" s="50">
         <f ca="1">COUNTIF(B19:B318, "")</f>
@@ -12396,8 +12621,8 @@
         <f>COUNTIF(E19:E318, "")</f>
         <v>300</v>
       </c>
-      <c r="F319" s="113" t="s">
-        <v>61</v>
+      <c r="F319" s="111" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12405,7 +12630,7 @@
       <c r="C320" s="30"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="108"/>
+      <c r="F320" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12504,41 +12729,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="126" t="s">
+      <c r="B3" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="124"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -12549,7 +12774,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>4</v>
@@ -12604,7 +12829,7 @@
     <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
@@ -12634,16 +12859,16 @@
       <c r="C7" s="71"/>
       <c r="D7" s="69"/>
       <c r="E7" s="70"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
       <c r="K7" s="61"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="61"/>
       <c r="Q7" s="59"/>
     </row>
@@ -12707,44 +12932,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
       <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="136" t="str">
+      <c r="D2" s="143" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v/>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
       <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="135" t="str" cm="1">
+      <c r="N2" s="142" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$6,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;" &amp; 'Test Run Log'!$B$5:$B$6)), COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;"&amp;'Test Run Log'!$B$5:$B$6),0))</f>
         <v>R2</v>
       </c>
-      <c r="O2" s="135"/>
+      <c r="O2" s="142"/>
       <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -12752,22 +12977,22 @@
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="135" t="str">
+      <c r="D3" s="142" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v/>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
       <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="135" t="str">
+      <c r="N3" s="142" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v/>
       </c>
-      <c r="O3" s="135"/>
+      <c r="O3" s="142"/>
       <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -12777,11 +13002,11 @@
       <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="136">
+      <c r="N4" s="143">
         <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="136"/>
+      <c r="O4" s="143"/>
       <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -12791,34 +13016,34 @@
       <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="136">
+      <c r="N5" s="143">
         <f>SUM(K14:M14)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="136"/>
+      <c r="O5" s="143"/>
       <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="130" t="str">
+      <c r="B7" s="137" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="132"/>
-      <c r="J7" s="130" t="str">
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="139"/>
+      <c r="J7" s="137" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="132"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="139"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -12908,8 +13133,8 @@
       <c r="E13" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="112" t="s">
-        <v>60</v>
+      <c r="F13" s="110" t="s">
+        <v>59</v>
       </c>
       <c r="G13" s="99" t="s">
         <v>4</v>
@@ -12995,49 +13220,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="130" t="str">
+      <c r="B17" s="137" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="132"/>
-      <c r="J17" s="130" t="str">
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="139"/>
+      <c r="J17" s="137" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="132"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="139"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="130" t="str">
+      <c r="B29" s="137" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="132"/>
-      <c r="J29" s="130" t="str">
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="139"/>
+      <c r="J29" s="137" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="132"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="139"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -13170,254 +13395,254 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="132"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="139"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
-      <c r="O43" s="134"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="141"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="118"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="128"/>
-      <c r="O44" s="129"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
+      <c r="N44" s="135"/>
+      <c r="O44" s="136"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="118"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="128"/>
-      <c r="N45" s="128"/>
-      <c r="O45" s="129"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="136"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="118"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
-      <c r="N46" s="128"/>
-      <c r="O46" s="129"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
+      <c r="N46" s="135"/>
+      <c r="O46" s="136"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="128"/>
-      <c r="M47" s="128"/>
-      <c r="N47" s="128"/>
-      <c r="O47" s="129"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="136"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="129"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="135"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
+      <c r="N48" s="135"/>
+      <c r="O48" s="136"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="131"/>
-      <c r="M50" s="131"/>
-      <c r="N50" s="131"/>
-      <c r="O50" s="132"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="139"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="133" t="s">
+      <c r="C51" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
-      <c r="N51" s="133"/>
-      <c r="O51" s="133"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="140"/>
+      <c r="L51" s="140"/>
+      <c r="M51" s="140"/>
+      <c r="N51" s="140"/>
+      <c r="O51" s="140"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="118"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="129"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="134"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="135"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="135"/>
+      <c r="O52" s="136"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="118"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="129"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="135"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
+      <c r="N53" s="135"/>
+      <c r="O53" s="136"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="118"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="129"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="135"/>
+      <c r="O54" s="136"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="129"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="135"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
+      <c r="N55" s="135"/>
+      <c r="O55" s="136"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="129"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
+      <c r="O56" s="136"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -13426,130 +13651,130 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
-      <c r="O58" s="132"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="138"/>
+      <c r="L58" s="138"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="139"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="133" t="s">
+      <c r="C59" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
-      <c r="O59" s="133"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="140"/>
+      <c r="O59" s="140"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="118"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="128"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="128"/>
-      <c r="M60" s="128"/>
-      <c r="N60" s="128"/>
-      <c r="O60" s="129"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="135"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="135"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
+      <c r="N60" s="135"/>
+      <c r="O60" s="136"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="118"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="H61" s="128"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="128"/>
-      <c r="L61" s="128"/>
-      <c r="M61" s="128"/>
-      <c r="N61" s="128"/>
-      <c r="O61" s="129"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
+      <c r="N61" s="135"/>
+      <c r="O61" s="136"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="118"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="128"/>
-      <c r="E62" s="128"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
-      <c r="H62" s="128"/>
-      <c r="I62" s="128"/>
-      <c r="J62" s="128"/>
-      <c r="K62" s="128"/>
-      <c r="L62" s="128"/>
-      <c r="M62" s="128"/>
-      <c r="N62" s="128"/>
-      <c r="O62" s="129"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="135"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="135"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
+      <c r="N62" s="135"/>
+      <c r="O62" s="136"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="128"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="128"/>
-      <c r="L63" s="128"/>
-      <c r="M63" s="128"/>
-      <c r="N63" s="128"/>
-      <c r="O63" s="129"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
+      <c r="J63" s="135"/>
+      <c r="K63" s="135"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="135"/>
+      <c r="N63" s="135"/>
+      <c r="O63" s="136"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
-      <c r="L64" s="128"/>
-      <c r="M64" s="128"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="129"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="135"/>
+      <c r="I64" s="135"/>
+      <c r="J64" s="135"/>
+      <c r="K64" s="135"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
+      <c r="N64" s="135"/>
+      <c r="O64" s="136"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13650,10 +13875,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26181B-D78B-4108-8079-DC823ADE7B2B}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13680,7 +13905,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="145" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="12"/>
@@ -13690,7 +13915,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="138"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -13699,7 +13924,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -13730,25 +13955,25 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="141"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="141"/>
+      <c r="D9" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="148"/>
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13763,18 +13988,18 @@
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13789,18 +14014,18 @@
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="115"/>
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
+      <c r="B15" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -13812,35 +14037,46 @@
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="59"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="121"/>
     </row>
     <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="19" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="121"/>
+    </row>
+    <row r="19" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="121"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="121"/>
+    </row>
+    <row r="20" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="120">
+        <f ca="1">TODAY()</f>
+        <v>44289</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="D8:E8"/>

--- a/download/my_test_case_manager.xlsx
+++ b/download/my_test_case_manager.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54898714-D0E9-4B70-8D95-E9B310880FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679D094-7075-4F5E-9860-7E480855E243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="36" r:id="rId1"/>
@@ -288,7 +288,7 @@
     <t>▪</t>
   </si>
   <si>
-    <t xml:space="preserve"> v5.01.44289</t>
+    <t xml:space="preserve"> v5.01.44294</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1357,6 +1357,13 @@
     <xf numFmtId="43" fontId="27" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1378,14 +1385,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1402,23 +1409,23 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8602,16 +8609,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3036024</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514896</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8641,7 +8648,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="4270464" y="60960"/>
           <a:ext cx="1223556" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8665,13 +8672,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>112644</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338051</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40871</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>33132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8724,16 +8731,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514844</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217665</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2948939</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8749,8 +8756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1223504" y="2495715"/>
-          <a:ext cx="2959875" cy="529425"/>
+          <a:off x="1223505" y="2446020"/>
+          <a:ext cx="2952255" cy="529425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8847,6 +8854,67 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253746</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2413A2-255E-49C5-BF71-DDE673E77385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="962406" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9196,10 +9264,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="127"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9303,13 +9371,13 @@
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="111"/>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="130"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9573,12 +9641,12 @@
       <c r="A17" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="130"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
       <c r="F17" s="111" t="s">
         <v>60</v>
       </c>
@@ -12729,41 +12797,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133" t="s">
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="131"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="134"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -12932,44 +13000,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
       <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="143" t="str">
+      <c r="D2" s="138" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v/>
       </c>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
       <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="142" t="str" cm="1">
+      <c r="N2" s="137" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$6,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;" &amp; 'Test Run Log'!$B$5:$B$6)), COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;"&amp;'Test Run Log'!$B$5:$B$6),0))</f>
         <v>R2</v>
       </c>
-      <c r="O2" s="142"/>
+      <c r="O2" s="137"/>
       <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -12977,22 +13045,22 @@
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="142" t="str">
+      <c r="D3" s="137" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v/>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
       <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="142" t="str">
+      <c r="N3" s="137" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v/>
       </c>
-      <c r="O3" s="142"/>
+      <c r="O3" s="137"/>
       <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13002,11 +13070,11 @@
       <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="143">
+      <c r="N4" s="138">
         <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="143"/>
+      <c r="O4" s="138"/>
       <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13016,34 +13084,34 @@
       <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="143">
+      <c r="N5" s="138">
         <f>SUM(K14:M14)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="143"/>
+      <c r="O5" s="138"/>
       <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="137" t="str">
+      <c r="B7" s="140" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139"/>
-      <c r="J7" s="137" t="str">
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
+      <c r="J7" s="140" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="139"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="142"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -13220,49 +13288,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="137" t="str">
+      <c r="B17" s="140" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="139"/>
-      <c r="J17" s="137" t="str">
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="J17" s="140" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="138"/>
-      <c r="O17" s="139"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="142"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="137" t="str">
+      <c r="B29" s="140" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="139"/>
-      <c r="J29" s="137" t="str">
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
+      <c r="J29" s="140" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="139"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="142"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -13395,254 +13463,254 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="139"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="142"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="141" t="s">
+      <c r="C43" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="141"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="144"/>
+      <c r="O43" s="144"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="116"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="135"/>
-      <c r="I44" s="135"/>
-      <c r="J44" s="135"/>
-      <c r="K44" s="135"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
-      <c r="N44" s="135"/>
-      <c r="O44" s="136"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="146"/>
+      <c r="O44" s="147"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="116"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="136"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="146"/>
+      <c r="O45" s="147"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="116"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
-      <c r="N46" s="135"/>
-      <c r="O46" s="136"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="147"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="118"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="136"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="146"/>
+      <c r="L47" s="146"/>
+      <c r="M47" s="146"/>
+      <c r="N47" s="146"/>
+      <c r="O47" s="147"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="117"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="135"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
-      <c r="N48" s="135"/>
-      <c r="O48" s="136"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="146"/>
+      <c r="L48" s="146"/>
+      <c r="M48" s="146"/>
+      <c r="N48" s="146"/>
+      <c r="O48" s="147"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="137" t="s">
+      <c r="B50" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="139"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141"/>
+      <c r="N50" s="141"/>
+      <c r="O50" s="142"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="140" t="s">
+      <c r="C51" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="143"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="143"/>
+      <c r="O51" s="143"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="116"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="135"/>
-      <c r="K52" s="135"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
-      <c r="N52" s="135"/>
-      <c r="O52" s="136"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="146"/>
+      <c r="K52" s="146"/>
+      <c r="L52" s="146"/>
+      <c r="M52" s="146"/>
+      <c r="N52" s="146"/>
+      <c r="O52" s="147"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="116"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="135"/>
-      <c r="K53" s="135"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
-      <c r="N53" s="135"/>
-      <c r="O53" s="136"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="146"/>
+      <c r="N53" s="146"/>
+      <c r="O53" s="147"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="116"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
-      <c r="J54" s="135"/>
-      <c r="K54" s="135"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="135"/>
-      <c r="N54" s="135"/>
-      <c r="O54" s="136"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="146"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="146"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="146"/>
+      <c r="N54" s="146"/>
+      <c r="O54" s="147"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="118"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="135"/>
-      <c r="H55" s="135"/>
-      <c r="I55" s="135"/>
-      <c r="J55" s="135"/>
-      <c r="K55" s="135"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
-      <c r="N55" s="135"/>
-      <c r="O55" s="136"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="146"/>
+      <c r="K55" s="146"/>
+      <c r="L55" s="146"/>
+      <c r="M55" s="146"/>
+      <c r="N55" s="146"/>
+      <c r="O55" s="147"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="117"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
-      <c r="O56" s="136"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="146"/>
+      <c r="L56" s="146"/>
+      <c r="M56" s="146"/>
+      <c r="N56" s="146"/>
+      <c r="O56" s="147"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -13651,130 +13719,130 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="138"/>
-      <c r="L58" s="138"/>
-      <c r="M58" s="138"/>
-      <c r="N58" s="138"/>
-      <c r="O58" s="139"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="141"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="141"/>
+      <c r="K58" s="141"/>
+      <c r="L58" s="141"/>
+      <c r="M58" s="141"/>
+      <c r="N58" s="141"/>
+      <c r="O58" s="142"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="140" t="s">
+      <c r="C59" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="140"/>
-      <c r="O59" s="140"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="116"/>
-      <c r="C60" s="134"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="135"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="135"/>
-      <c r="J60" s="135"/>
-      <c r="K60" s="135"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
-      <c r="N60" s="135"/>
-      <c r="O60" s="136"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="146"/>
+      <c r="M60" s="146"/>
+      <c r="N60" s="146"/>
+      <c r="O60" s="147"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="116"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
-      <c r="J61" s="135"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
-      <c r="O61" s="136"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="146"/>
+      <c r="L61" s="146"/>
+      <c r="M61" s="146"/>
+      <c r="N61" s="146"/>
+      <c r="O61" s="147"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="116"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="135"/>
-      <c r="O62" s="136"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="146"/>
+      <c r="M62" s="146"/>
+      <c r="N62" s="146"/>
+      <c r="O62" s="147"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="118"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
-      <c r="J63" s="135"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
-      <c r="N63" s="135"/>
-      <c r="O63" s="136"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="146"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="146"/>
+      <c r="M63" s="146"/>
+      <c r="N63" s="146"/>
+      <c r="O63" s="147"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="117"/>
-      <c r="C64" s="134"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
-      <c r="J64" s="135"/>
-      <c r="K64" s="135"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
-      <c r="N64" s="135"/>
-      <c r="O64" s="136"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="146"/>
+      <c r="M64" s="146"/>
+      <c r="N64" s="146"/>
+      <c r="O64" s="147"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13832,13 +13900,17 @@
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
     <mergeCell ref="B58:O58"/>
     <mergeCell ref="C59:O59"/>
     <mergeCell ref="B42:O42"/>
@@ -13855,17 +13927,13 @@
     <mergeCell ref="C54:O54"/>
     <mergeCell ref="C55:O55"/>
     <mergeCell ref="C56:O56"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13875,10 +13943,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26181B-D78B-4108-8079-DC823ADE7B2B}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13886,39 +13954,43 @@
     <col min="1" max="1" width="1.77734375" style="58" customWidth="1"/>
     <col min="2" max="2" width="3.88671875" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="58" customWidth="1"/>
     <col min="5" max="5" width="46.21875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="58" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="58"/>
+    <col min="6" max="6" width="14.109375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="1.77734375" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="127"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="148"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -13926,165 +13998,174 @@
       <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="148" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="148"/>
-      <c r="F8" s="59"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D8" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="148"/>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="59"/>
-    </row>
-    <row r="11" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="147" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="146" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="59"/>
-    </row>
-    <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="59"/>
-    </row>
-    <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="121"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="121"/>
-    </row>
-    <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="121"/>
+    </row>
+    <row r="18" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="121"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="121"/>
-    </row>
-    <row r="19" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="121"/>
+    </row>
+    <row r="19" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="121"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="121"/>
-    </row>
-    <row r="20" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="120">
+      <c r="G19" s="121"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="120">
         <f ca="1">TODAY()</f>
-        <v>44289</v>
-      </c>
+        <v>44294</v>
+      </c>
+      <c r="F20" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{015FA7D6-A637-4936-ACB1-3173D4C16A0A}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{E6A4B236-25DA-426B-9FDF-1BAAAB43631F}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{015FA7D6-A637-4936-ACB1-3173D4C16A0A}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{E6A4B236-25DA-426B-9FDF-1BAAAB43631F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14093,9 +14174,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14213,25 +14297,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14253,9 +14327,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/download/my_test_case_manager.xlsx
+++ b/download/my_test_case_manager.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7679D094-7075-4F5E-9860-7E480855E243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E93EDD-AF88-4783-B0BF-099ACAA6F887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,6 +13,7 @@
     <sheet name="Test Run Log" sheetId="35" r:id="rId3"/>
     <sheet name="Report" sheetId="1" r:id="rId4"/>
     <sheet name="About" sheetId="37" r:id="rId5"/>
+    <sheet name="ReleaseNotes" sheetId="38" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$B$18:$E$319</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>F</t>
   </si>
@@ -145,18 +146,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>YouTube:</t>
-  </si>
-  <si>
-    <t>GitHub:</t>
-  </si>
-  <si>
-    <t>http://www.dataresearchlabs.com</t>
-  </si>
-  <si>
-    <t>(CC) 2021  -  Data Research Labs</t>
-  </si>
-  <si>
     <t>Company:</t>
   </si>
   <si>
@@ -238,31 +227,6 @@
     <t>Total Defects:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creative Commons License</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:  You are free to use, extend, and distribute this software.  The only request is that you mention Data Research Labs as an original contributor.</t>
-    </r>
-  </si>
-  <si>
     <t>Test Run Description</t>
   </si>
   <si>
@@ -288,7 +252,74 @@
     <t>▪</t>
   </si>
   <si>
-    <t xml:space="preserve"> v5.01.44294</t>
+    <t>(CC0) 2021  -  Data Research Labs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creative Commons Zero License</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  Effectively = Public Domain.  You are free to use, extend, and distribute this software.  The only request is that you mention Data Research Labs as an original contributor in whatever form you morph this into.</t>
+    </r>
+  </si>
+  <si>
+    <t>Release Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v5.01.44299</t>
+  </si>
+  <si>
+    <t>Add "Release Notes" tab to templates (not samples).  Date and version stamp each release.  Number the fixes.</t>
+  </si>
+  <si>
+    <t>Add a link to the Basic XL YouTube PlayList to offer free training on Excel usage tips</t>
+  </si>
+  <si>
+    <t>Defect trend graph Open has border turned on for red (should be fill only) check all</t>
+  </si>
+  <si>
+    <t>v5.01.44299  -  4/13/2021</t>
+  </si>
+  <si>
+    <t>Make About screen point to YouTube PlayList, not the overall site link</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLVHoUDdbskUSZQsl0iexHwRGb8Z7_EjlS</t>
+  </si>
+  <si>
+    <t>XL Trainnig:</t>
+  </si>
+  <si>
+    <t>Video Help:</t>
+  </si>
+  <si>
+    <t>Online Help:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLVHoUDdbskUQXl0S6nS2QUMB69rrf1zcF</t>
+  </si>
+  <si>
+    <t>Re-order graph series so that Qpass is adjacent to Pass in all Test Case count and trend graphs (at least one is wrong)</t>
+  </si>
+  <si>
+    <t>Releasability Graph allows for 0.5 in the count when count is low (integer only).  Check all graphs…confirmed most are wrong, especially when no data.  Fix all by setting minimum graph unit to 1, while leaving max to Auto.</t>
   </si>
 </sst>
 </file>
@@ -551,7 +582,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +682,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1092,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1429,6 +1466,36 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2375,6 +2442,7 @@
         <c:crossAx val="337800712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2477,9 +2545,7 @@
               <a:srgbClr val="005024"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="005024"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2493,9 +2559,7 @@
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2524,8 +2588,69 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qpass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00E266"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-27C8-44C8-A49F-9B2368E244CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27C8-44C8-A49F-9B2368E244CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Report!$E$13</c:f>
@@ -2542,9 +2667,7 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2569,7 +2692,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Report!$D$13</c:f>
@@ -2586,9 +2709,7 @@
               <a:srgbClr val="FFFF00"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2613,7 +2734,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Report!$C$13</c:f>
@@ -2630,9 +2751,7 @@
               <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2652,71 +2771,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3028-4282-8FBB-62752001F8FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Report!$F$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Qpass</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00E266"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00E266"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00E266"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-27C8-44C8-A49F-9B2368E244CF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-27C8-44C8-A49F-9B2368E244CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2807,6 +2861,7 @@
         <c:crossAx val="705073072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2898,9 +2953,7 @@
               <a:srgbClr val="005024"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="005024"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2917,12 +2970,7 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2972,11 +3020,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3018,9 +3062,7 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3130,6 +3172,7 @@
         <c:crossAx val="705073072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3327,9 +3370,7 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3531,6 +3572,7 @@
         <c:crossAx val="337800712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4138,6 +4180,7 @@
         <c:crossAx val="337800712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8609,14 +8652,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3036024</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111036</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -8648,7 +8691,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4270464" y="60960"/>
+          <a:off x="4358640" y="60960"/>
           <a:ext cx="1223556" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8671,15 +8714,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>112644</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>117493</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>40871</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8709,8 +8752,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="112644" y="2531167"/>
-          <a:ext cx="927772" cy="947530"/>
+          <a:off x="117493" y="2773680"/>
+          <a:ext cx="934067" cy="947530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8732,14 +8775,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217665</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>232905</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8756,8 +8799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1223505" y="2446020"/>
-          <a:ext cx="2952255" cy="529425"/>
+          <a:off x="1284465" y="2773680"/>
+          <a:ext cx="3005595" cy="529425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8865,7 +8908,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>253746</xdr:colOff>
+      <xdr:colOff>208026</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9265,7 +9308,7 @@
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
       <c r="B2" s="130" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="59"/>
@@ -9279,7 +9322,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="90"/>
       <c r="D4" s="59"/>
@@ -9307,7 +9350,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="90"/>
       <c r="D8" s="59"/>
@@ -9332,7 +9375,7 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9372,7 +9415,7 @@
       <c r="E2" s="64"/>
       <c r="F2" s="111"/>
       <c r="G2" s="131" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="132"/>
       <c r="I2" s="132"/>
@@ -9488,10 +9531,10 @@
       <c r="E8" s="64"/>
       <c r="F8" s="111"/>
       <c r="G8" s="68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I8" s="66">
         <f t="shared" si="0"/>
@@ -9531,10 +9574,10 @@
       <c r="E10" s="64"/>
       <c r="F10" s="111"/>
       <c r="G10" s="43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
@@ -9639,22 +9682,22 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="112" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B17" s="131" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" s="132"/>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
       <c r="F17" s="111" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>21</v>
@@ -12671,7 +12714,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="112" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B319" s="50">
         <f ca="1">COUNTIF(B19:B318, "")</f>
@@ -12690,7 +12733,7 @@
         <v>300</v>
       </c>
       <c r="F319" s="111" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12758,7 +12801,7 @@
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
@@ -12798,16 +12841,16 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="134" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C3" s="135" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" s="136" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="134" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="136" t="s">
         <v>16</v>
@@ -12842,7 +12885,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>4</v>
@@ -12851,10 +12894,10 @@
         <v>7</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>13</v>
@@ -12870,7 +12913,7 @@
     <row r="5" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="106" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
@@ -12897,7 +12940,7 @@
     <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="106" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
@@ -12979,7 +13022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13001,7 +13046,7 @@
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B1" s="139" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="139"/>
       <c r="D1" s="139"/>
@@ -13020,7 +13065,7 @@
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="138" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
@@ -13031,7 +13076,7 @@
       <c r="G2" s="138"/>
       <c r="H2" s="138"/>
       <c r="M2" s="30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N2" s="137" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$6,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;" &amp; 'Test Run Log'!$B$5:$B$6)), COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;"&amp;'Test Run Log'!$B$5:$B$6),0))</f>
@@ -13054,7 +13099,7 @@
       <c r="G3" s="137"/>
       <c r="H3" s="137"/>
       <c r="M3" s="30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N3" s="137" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
@@ -13068,7 +13113,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="92"/>
       <c r="M4" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N4" s="138">
         <f>SUM(C14:G14)</f>
@@ -13082,7 +13127,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="92"/>
       <c r="M5" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N5" s="138">
         <f>SUM(K14:M14)</f>
@@ -13202,7 +13247,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G13" s="99" t="s">
         <v>4</v>
@@ -13464,7 +13509,7 @@
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C42" s="141"/>
       <c r="D42" s="141"/>
@@ -13485,7 +13530,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="144" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D43" s="144"/>
       <c r="E43" s="144"/>
@@ -13588,7 +13633,7 @@
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C50" s="141"/>
       <c r="D50" s="141"/>
@@ -13610,7 +13655,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="143" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D51" s="143"/>
       <c r="E51" s="143"/>
@@ -13720,7 +13765,7 @@
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C58" s="141"/>
       <c r="D58" s="141"/>
@@ -13742,7 +13787,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="143" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D59" s="143"/>
       <c r="E59" s="143"/>
@@ -13943,20 +13988,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26181B-D78B-4108-8079-DC823ADE7B2B}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="58" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="58" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="46.21875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="47" style="58" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="58" customWidth="1"/>
     <col min="7" max="7" width="1.77734375" style="58" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="58"/>
   </cols>
@@ -13976,7 +14021,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="148" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="127"/>
       <c r="G2" s="12"/>
@@ -13996,7 +14041,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="12"/>
@@ -14023,153 +14068,289 @@
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
+        <v>67</v>
+      </c>
+      <c r="D7" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
       <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="113" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D8" s="151" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="151"/>
       <c r="F8" s="151"/>
       <c r="G8" s="59"/>
     </row>
-    <row r="9" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="129"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="128"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="59"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
-      <c r="B11" s="149" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="128"/>
       <c r="G11" s="59"/>
     </row>
-    <row r="12" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="129"/>
+      <c r="B12" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="128"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="59"/>
     </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
-      <c r="B14" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="59"/>
     </row>
-    <row r="15" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="129"/>
+      <c r="B15" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="121"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="121"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
       <c r="G17" s="121"/>
     </row>
-    <row r="18" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="121"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="121"/>
     </row>
-    <row r="19" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="121"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="121"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="120">
+    <row r="20" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="120">
         <f ca="1">TODAY()</f>
-        <v>44294</v>
-      </c>
-      <c r="F20" s="120"/>
+        <v>44299</v>
+      </c>
+      <c r="F21" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="D8:F8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{015FA7D6-A637-4936-ACB1-3173D4C16A0A}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{E6A4B236-25DA-426B-9FDF-1BAAAB43631F}"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://www.dataresearchlabs.com" xr:uid="{015FA7D6-A637-4936-ACB1-3173D4C16A0A}"/>
+    <hyperlink ref="D7:F7" r:id="rId2" display="https://www.youtube.com/playlist?list=PLVHoUDdbskUSZQsl0iexHwRGb8Z7_EjlS" xr:uid="{04370328-3E6D-485C-8E52-446571CC14A7}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{B448827E-D4F6-49E2-AE2F-10A2B5D3E6FA}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{DF2D0673-FE3D-463C-9A7B-9E9A0589E235}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC76BB1-6D17-4F01-9A8C-BA89276F8B85}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="158" customWidth="1"/>
+    <col min="3" max="3" width="104.5546875" style="153" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="54"/>
+      <c r="B2" s="157" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="159" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="159"/>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="160">
+        <v>1</v>
+      </c>
+      <c r="C5" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="54"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="160">
+        <v>2</v>
+      </c>
+      <c r="C6" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="160">
+        <v>3</v>
+      </c>
+      <c r="C7" s="161" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="160">
+        <v>4</v>
+      </c>
+      <c r="C8" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="54"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="160">
+        <v>5</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="160">
+        <v>6</v>
+      </c>
+      <c r="C10" s="161" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/download/my_test_case_manager.xlsx
+++ b/download/my_test_case_manager.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E93EDD-AF88-4783-B0BF-099ACAA6F887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC1211-9492-4A67-907F-A7AB576B9D49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1401,6 +1401,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1422,14 +1446,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1446,14 +1470,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1464,38 +1488,14 @@
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8781,7 +8781,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
@@ -8800,7 +8800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1284465" y="2773680"/>
-          <a:ext cx="3005595" cy="529425"/>
+          <a:ext cx="3318015" cy="529425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8877,7 +8877,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> YouTube channel "www.DataResearchLabs.com"</a:t>
+            <a:t> YouTube channel "www.DataResearchLabs.com" for tools and training</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1">
@@ -9307,10 +9307,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="130"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9414,13 +9414,13 @@
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="111"/>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9684,12 +9684,12 @@
       <c r="A17" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
       <c r="F17" s="111" t="s">
         <v>55</v>
       </c>
@@ -12840,41 +12840,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136" t="s">
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="134"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -13045,44 +13045,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
       <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="138" t="str">
+      <c r="D2" s="154" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v/>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
       <c r="M2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="137" t="str" cm="1">
+      <c r="N2" s="153" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$6,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;" &amp; 'Test Run Log'!$B$5:$B$6)), COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;"&amp;'Test Run Log'!$B$5:$B$6),0))</f>
         <v>R2</v>
       </c>
-      <c r="O2" s="137"/>
+      <c r="O2" s="153"/>
       <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13090,22 +13090,22 @@
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="137" t="str">
+      <c r="D3" s="153" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v/>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
       <c r="M3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="137" t="str">
+      <c r="N3" s="153" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v/>
       </c>
-      <c r="O3" s="137"/>
+      <c r="O3" s="153"/>
       <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13115,11 +13115,11 @@
       <c r="M4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="138">
+      <c r="N4" s="154">
         <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="138"/>
+      <c r="O4" s="154"/>
       <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13129,34 +13129,34 @@
       <c r="M5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="138">
+      <c r="N5" s="154">
         <f>SUM(K14:M14)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="138"/>
+      <c r="O5" s="154"/>
       <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="140" t="str">
+      <c r="B7" s="148" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
-      <c r="J7" s="140" t="str">
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="150"/>
+      <c r="J7" s="148" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R2</v>
       </c>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="142"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="150"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -13333,49 +13333,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="140" t="str">
+      <c r="B17" s="148" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="J17" s="140" t="str">
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="J17" s="148" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="142"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="140" t="str">
+      <c r="B29" s="148" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="142"/>
-      <c r="J29" s="140" t="str">
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
+      <c r="J29" s="148" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="142"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="150"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -13508,42 +13508,42 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="142"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="150"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-      <c r="O43" s="144"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="116"/>
@@ -13632,43 +13632,43 @@
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="140" t="s">
+      <c r="B50" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="141"/>
-      <c r="J50" s="141"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="141"/>
-      <c r="M50" s="141"/>
-      <c r="N50" s="141"/>
-      <c r="O50" s="142"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="149"/>
+      <c r="O50" s="150"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="143" t="s">
+      <c r="C51" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="143"/>
-      <c r="O51" s="143"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="151"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -13764,43 +13764,43 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="140" t="s">
+      <c r="B58" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="141"/>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141"/>
-      <c r="O58" s="142"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="150"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="143" t="s">
+      <c r="C59" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="143"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
+      <c r="I59" s="151"/>
+      <c r="J59" s="151"/>
+      <c r="K59" s="151"/>
+      <c r="L59" s="151"/>
+      <c r="M59" s="151"/>
+      <c r="N59" s="151"/>
+      <c r="O59" s="151"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -13945,17 +13945,13 @@
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B58:O58"/>
     <mergeCell ref="C59:O59"/>
     <mergeCell ref="B42:O42"/>
@@ -13972,13 +13968,17 @@
     <mergeCell ref="C54:O54"/>
     <mergeCell ref="C55:O55"/>
     <mergeCell ref="C56:O56"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13991,7 +13991,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14020,7 +14020,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="156" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="127"/>
@@ -14031,7 +14031,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="148"/>
+      <c r="E3" s="156"/>
       <c r="F3" s="127"/>
       <c r="G3" s="12"/>
     </row>
@@ -14070,11 +14070,11 @@
       <c r="C7" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
       <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -14083,11 +14083,11 @@
       <c r="C8" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="151" t="s">
+      <c r="D8" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
       <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -14096,11 +14096,11 @@
       <c r="C9" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -14123,12 +14123,12 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
       <c r="F12" s="128"/>
       <c r="G12" s="59"/>
     </row>
@@ -14152,13 +14152,13 @@
     </row>
     <row r="15" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -14245,104 +14245,104 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" style="158" customWidth="1"/>
-    <col min="3" max="3" width="104.5546875" style="153" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="135" customWidth="1"/>
+    <col min="3" max="3" width="104.5546875" style="131" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="58" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="54"/>
-      <c r="B1" s="156"/>
-      <c r="C1" s="152"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="130"/>
       <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="154"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="152"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="130"/>
       <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="159"/>
+      <c r="C4" s="161"/>
       <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
-      <c r="B5" s="160">
+      <c r="B5" s="136">
         <v>1</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="137" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
-      <c r="B6" s="160">
+      <c r="B6" s="136">
         <v>2</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="137" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
-      <c r="B7" s="160">
+      <c r="B7" s="136">
         <v>3</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="137" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
-      <c r="B8" s="160">
+      <c r="B8" s="136">
         <v>4</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="137" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
-      <c r="B9" s="160">
+      <c r="B9" s="136">
         <v>5</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="137" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
-      <c r="B10" s="160">
+      <c r="B10" s="136">
         <v>6</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="137" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="54"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="152"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="54"/>
     </row>
   </sheetData>
@@ -14355,12 +14355,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14478,15 +14475,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14508,16 +14515,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/download/my_test_case_manager.xlsx
+++ b/download/my_test_case_manager.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC1211-9492-4A67-907F-A7AB576B9D49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6FBFA6-EF2E-4EB7-89FA-7A6711A48935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="36" r:id="rId1"/>
@@ -283,9 +283,6 @@
     <t>Release Notes</t>
   </si>
   <si>
-    <t xml:space="preserve"> v5.01.44299</t>
-  </si>
-  <si>
     <t>Add "Release Notes" tab to templates (not samples).  Date and version stamp each release.  Number the fixes.</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>Releasability Graph allows for 0.5 in the count when count is low (integer only).  Check all graphs…confirmed most are wrong, especially when no data.  Fix all by setting minimum graph unit to 1, while leaving max to Auto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v5.01.44308</t>
   </si>
 </sst>
 </file>
@@ -9375,7 +9375,7 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12765,9 +12765,13 @@
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="   - (Press delete to clear)_x000a_i  - Information_x000a_T - To Do_x000a_B - Blocked_x000a_F - Fail_x000a_Q - Qualified Pass_x000a_P - Pass" sqref="D19:D318" xr:uid="{82A7EADB-1480-405F-AB2E-6962FBFFF165}">
       <formula1>"i,T,B,F,Q,P"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter time in minutes (0-999)" prompt="Do no enter the &quot;m&quot;." sqref="C19:C318" xr:uid="{DDF9A720-D7EF-4D6B-87E6-3914070F8D73}">
+      <formula1>0</formula1>
+      <formula2>999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13991,7 +13995,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14041,7 +14045,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="12"/>
@@ -14068,10 +14072,10 @@
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="159"/>
       <c r="F7" s="159"/>
@@ -14081,7 +14085,7 @@
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="160" t="s">
         <v>51</v>
@@ -14094,10 +14098,10 @@
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="113" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="160"/>
@@ -14209,7 +14213,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" s="120">
         <f ca="1">TODAY()</f>
-        <v>44299</v>
+        <v>44308</v>
       </c>
       <c r="F21" s="120"/>
     </row>
@@ -14274,7 +14278,7 @@
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="161" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="161"/>
       <c r="D4" s="54"/>
@@ -14285,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="54"/>
     </row>
@@ -14295,7 +14299,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="54"/>
     </row>
@@ -14305,7 +14309,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="54"/>
     </row>
@@ -14315,7 +14319,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="54"/>
     </row>
@@ -14325,7 +14329,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="54"/>
     </row>
@@ -14335,7 +14339,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="54"/>
     </row>

--- a/download/my_test_case_manager.xlsx
+++ b/download/my_test_case_manager.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6FBFA6-EF2E-4EB7-89FA-7A6711A48935}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8388C1E2-6046-4CC5-B378-56B06D991ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="36" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>F</t>
   </si>
@@ -283,21 +283,6 @@
     <t>Release Notes</t>
   </si>
   <si>
-    <t>Add "Release Notes" tab to templates (not samples).  Date and version stamp each release.  Number the fixes.</t>
-  </si>
-  <si>
-    <t>Add a link to the Basic XL YouTube PlayList to offer free training on Excel usage tips</t>
-  </si>
-  <si>
-    <t>Defect trend graph Open has border turned on for red (should be fill only) check all</t>
-  </si>
-  <si>
-    <t>v5.01.44299  -  4/13/2021</t>
-  </si>
-  <si>
-    <t>Make About screen point to YouTube PlayList, not the overall site link</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/playlist?list=PLVHoUDdbskUSZQsl0iexHwRGb8Z7_EjlS</t>
   </si>
   <si>
@@ -313,13 +298,35 @@
     <t>https://www.youtube.com/playlist?list=PLVHoUDdbskUQXl0S6nS2QUMB69rrf1zcF</t>
   </si>
   <si>
-    <t>Re-order graph series so that Qpass is adjacent to Pass in all Test Case count and trend graphs (at least one is wrong)</t>
+    <t xml:space="preserve"> v5.01.44308</t>
   </si>
   <si>
-    <t>Releasability Graph allows for 0.5 in the count when count is low (integer only).  Check all graphs…confirmed most are wrong, especially when no data.  Fix all by setting minimum graph unit to 1, while leaving max to Auto.</t>
+    <t>v5.01.44299  -  2021.04.13</t>
   </si>
   <si>
-    <t xml:space="preserve"> v5.01.44308</t>
+    <t>v5.01.44308  -  202104.22</t>
+  </si>
+  <si>
+    <t>CHANGE - Add "Release Notes" tab to templates (not samples).  Date and version stamp each release.  Number the fixes.</t>
+  </si>
+  <si>
+    <t>CHANGE - Make About screen point to YouTube PlayList, not the overall site link</t>
+  </si>
+  <si>
+    <t>CHANGE - Add a link to the Basic XL YouTube PlayList to offer free training on Excel usage tips</t>
+  </si>
+  <si>
+    <t>DEFECT - Re-order graph series so that Qpass is adjacent to Pass in all Test Case count and trend graphs (at least one is wrong)</t>
+  </si>
+  <si>
+    <t>DEFECT - Trend graph Open has border turned on for red (should be fill only) check all</t>
+  </si>
+  <si>
+    <t>DEFECT - Releasability Graph allows for 0.5 in the count when count is low (integer only).  Check all graphs…confirmed most are wrong, especially when no data.  Fix all by setting minimum graph unit to 1, while leaving max to Auto.</t>
+  </si>
+  <si>
+    <t>DEFECT - Now only allow whole numbers 0-999 to be entered. Message added indicating this and not to enter "m".
+Error occurs if data validation rule broken. Avoids scenario as reported by Ana Paula Olvia (thank you for bug report Ana!)</t>
   </si>
 </sst>
 </file>
@@ -1446,14 +1453,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1470,14 +1477,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13049,44 +13056,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
       <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="154" t="str">
+      <c r="D2" s="146" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v/>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="M2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="153" t="str" cm="1">
+      <c r="N2" s="145" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$6,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;" &amp; 'Test Run Log'!$B$5:$B$6)), COUNTIF('Test Run Log'!$B$5:$B$6, "&lt;"&amp;'Test Run Log'!$B$5:$B$6),0))</f>
         <v>R2</v>
       </c>
-      <c r="O2" s="153"/>
+      <c r="O2" s="145"/>
       <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13094,22 +13101,22 @@
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="153" t="str">
+      <c r="D3" s="145" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v/>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
       <c r="M3" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="153" t="str">
+      <c r="N3" s="145" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v/>
       </c>
-      <c r="O3" s="153"/>
+      <c r="O3" s="145"/>
       <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13119,11 +13126,11 @@
       <c r="M4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="154">
+      <c r="N4" s="146">
         <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="154"/>
+      <c r="O4" s="146"/>
       <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13133,11 +13140,11 @@
       <c r="M5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="154">
+      <c r="N5" s="146">
         <f>SUM(K14:M14)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="154"/>
+      <c r="O5" s="146"/>
       <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13551,85 +13558,85 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="116"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
-      <c r="O44" s="147"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
+      <c r="K44" s="154"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
+      <c r="N44" s="154"/>
+      <c r="O44" s="155"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="116"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="147"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="154"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
+      <c r="N45" s="154"/>
+      <c r="O45" s="155"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="116"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
-      <c r="M46" s="146"/>
-      <c r="N46" s="146"/>
-      <c r="O46" s="147"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="154"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="155"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="118"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="147"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="155"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="117"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146"/>
-      <c r="N48" s="146"/>
-      <c r="O48" s="147"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
+      <c r="K48" s="154"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
+      <c r="N48" s="154"/>
+      <c r="O48" s="155"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
@@ -13677,89 +13684,89 @@
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="116"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
-      <c r="J52" s="146"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="146"/>
-      <c r="M52" s="146"/>
-      <c r="N52" s="146"/>
-      <c r="O52" s="147"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="155"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="116"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146"/>
-      <c r="F53" s="146"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="146"/>
-      <c r="N53" s="146"/>
-      <c r="O53" s="147"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="154"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="155"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="116"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="146"/>
-      <c r="N54" s="146"/>
-      <c r="O54" s="147"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="154"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="155"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="118"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
-      <c r="M55" s="146"/>
-      <c r="N55" s="146"/>
-      <c r="O55" s="147"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="155"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="117"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="146"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="146"/>
-      <c r="M56" s="146"/>
-      <c r="N56" s="146"/>
-      <c r="O56" s="147"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
+      <c r="N56" s="154"/>
+      <c r="O56" s="155"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -13809,89 +13816,89 @@
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="116"/>
-      <c r="C60" s="145"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
-      <c r="M60" s="146"/>
-      <c r="N60" s="146"/>
-      <c r="O60" s="147"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
+      <c r="F60" s="154"/>
+      <c r="G60" s="154"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="154"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="155"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="116"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="146"/>
-      <c r="M61" s="146"/>
-      <c r="N61" s="146"/>
-      <c r="O61" s="147"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="154"/>
+      <c r="E61" s="154"/>
+      <c r="F61" s="154"/>
+      <c r="G61" s="154"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="154"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="154"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
+      <c r="N61" s="154"/>
+      <c r="O61" s="155"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="116"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="146"/>
-      <c r="M62" s="146"/>
-      <c r="N62" s="146"/>
-      <c r="O62" s="147"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="154"/>
+      <c r="H62" s="154"/>
+      <c r="I62" s="154"/>
+      <c r="J62" s="154"/>
+      <c r="K62" s="154"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
+      <c r="N62" s="154"/>
+      <c r="O62" s="155"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="118"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="146"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
-      <c r="M63" s="146"/>
-      <c r="N63" s="146"/>
-      <c r="O63" s="147"/>
+      <c r="C63" s="153"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="155"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="117"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="146"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="146"/>
-      <c r="M64" s="146"/>
-      <c r="N64" s="146"/>
-      <c r="O64" s="147"/>
+      <c r="C64" s="153"/>
+      <c r="D64" s="154"/>
+      <c r="E64" s="154"/>
+      <c r="F64" s="154"/>
+      <c r="G64" s="154"/>
+      <c r="H64" s="154"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="154"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
+      <c r="N64" s="154"/>
+      <c r="O64" s="155"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13949,13 +13956,17 @@
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
     <mergeCell ref="B58:O58"/>
     <mergeCell ref="C59:O59"/>
     <mergeCell ref="B42:O42"/>
@@ -13972,17 +13983,13 @@
     <mergeCell ref="C54:O54"/>
     <mergeCell ref="C55:O55"/>
     <mergeCell ref="C56:O56"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14045,7 +14052,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="12"/>
@@ -14072,10 +14079,10 @@
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="113" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" s="159"/>
       <c r="F7" s="159"/>
@@ -14085,7 +14092,7 @@
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="113" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" s="160" t="s">
         <v>51</v>
@@ -14098,10 +14105,10 @@
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="113" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="160"/>
@@ -14213,7 +14220,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E21" s="120">
         <f ca="1">TODAY()</f>
-        <v>44308</v>
+        <v>44310</v>
       </c>
       <c r="F21" s="120"/>
     </row>
@@ -14240,10 +14247,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC76BB1-6D17-4F01-9A8C-BA89276F8B85}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14278,79 +14285,104 @@
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="161" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="161"/>
       <c r="D4" s="54"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="136">
         <v>1</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
-      <c r="B6" s="136">
-        <v>2</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>63</v>
-      </c>
+      <c r="B6" s="133"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="54"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
-      <c r="B7" s="136">
-        <v>3</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>60</v>
-      </c>
+      <c r="B7" s="161" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="161"/>
       <c r="D7" s="54"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="137" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="137" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D9" s="54"/>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="136">
+        <v>3</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="136">
+        <v>4</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="136">
+        <v>5</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="136">
         <v>6</v>
       </c>
-      <c r="C10" s="137" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="54"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="54"/>
+      <c r="C13" s="137" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="54"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14359,9 +14391,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14479,25 +14514,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14519,9 +14544,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>